--- a/Code/Results/Cases/Case_5_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.9410099053663</v>
+        <v>21.87425239467272</v>
       </c>
       <c r="C2">
-        <v>15.83814910550915</v>
+        <v>14.9614107426563</v>
       </c>
       <c r="D2">
-        <v>4.528233778363894</v>
+        <v>2.405963758444944</v>
       </c>
       <c r="E2">
-        <v>13.15837633582869</v>
+        <v>6.393230707315918</v>
       </c>
       <c r="F2">
-        <v>39.22408671232245</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>41.04146461517832</v>
       </c>
       <c r="I2">
-        <v>25.82668838265063</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.821881274744584</v>
       </c>
       <c r="K2">
-        <v>18.90891399510849</v>
+        <v>18.92201106104292</v>
       </c>
       <c r="L2">
-        <v>15.95592594526044</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15.51970147002822</v>
+      </c>
+      <c r="N2">
+        <v>15.02340942271087</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.44238113042972</v>
+        <v>20.49691240780546</v>
       </c>
       <c r="C3">
-        <v>14.69480842682893</v>
+        <v>13.9298245983888</v>
       </c>
       <c r="D3">
-        <v>4.544637884793294</v>
+        <v>2.37754083313783</v>
       </c>
       <c r="E3">
-        <v>12.18402251670047</v>
+        <v>6.349136498400217</v>
       </c>
       <c r="F3">
-        <v>37.11502154547016</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>39.62207838235665</v>
       </c>
       <c r="I3">
-        <v>24.80181149349373</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.838779227557916</v>
       </c>
       <c r="K3">
-        <v>17.58155089868563</v>
+        <v>17.78028065062547</v>
       </c>
       <c r="L3">
-        <v>14.79632865723264</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>14.83261386795843</v>
+      </c>
+      <c r="N3">
+        <v>15.18479781811429</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.47657412525195</v>
+        <v>19.62275587364783</v>
       </c>
       <c r="C4">
-        <v>13.95936306945574</v>
+        <v>13.2862991256087</v>
       </c>
       <c r="D4">
-        <v>4.557536967095407</v>
+        <v>2.360735458364804</v>
       </c>
       <c r="E4">
-        <v>11.55904346200559</v>
+        <v>6.325005851856033</v>
       </c>
       <c r="F4">
-        <v>35.80547675055016</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>38.76633793308889</v>
       </c>
       <c r="I4">
-        <v>24.17979241629178</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.851556729589038</v>
       </c>
       <c r="K4">
-        <v>16.72681447118874</v>
+        <v>17.05862898905654</v>
       </c>
       <c r="L4">
-        <v>14.05180460455987</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.4077757628203</v>
+      </c>
+      <c r="N4">
+        <v>15.28904151072383</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.07129244744271</v>
+        <v>19.25955630249319</v>
       </c>
       <c r="C5">
-        <v>13.65106177135226</v>
+        <v>13.01802297376714</v>
       </c>
       <c r="D5">
-        <v>4.563442104171773</v>
+        <v>2.354038043962397</v>
       </c>
       <c r="E5">
-        <v>11.29745384014584</v>
+        <v>6.315897527283044</v>
       </c>
       <c r="F5">
-        <v>35.26850205193728</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>38.42177086701723</v>
       </c>
       <c r="I5">
-        <v>23.9282286739595</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.857349318110582</v>
       </c>
       <c r="K5">
-        <v>16.36830985227106</v>
+        <v>16.75956215221565</v>
       </c>
       <c r="L5">
-        <v>13.74001243582565</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.23409497089722</v>
+      </c>
+      <c r="N5">
+        <v>15.33277137517031</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.00328220876757</v>
+        <v>19.19883308389394</v>
       </c>
       <c r="C6">
-        <v>13.59934364319544</v>
+        <v>12.97311362940408</v>
       </c>
       <c r="D6">
-        <v>4.564460125585669</v>
+        <v>2.352934746457646</v>
       </c>
       <c r="E6">
-        <v>11.25359484838415</v>
+        <v>6.314428455410652</v>
       </c>
       <c r="F6">
-        <v>35.17914951090997</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>38.36481276366451</v>
       </c>
       <c r="I6">
-        <v>23.88657558666289</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.85834603120361</v>
       </c>
       <c r="K6">
-        <v>16.30815924121106</v>
+        <v>16.70960829907714</v>
       </c>
       <c r="L6">
-        <v>13.68772677232905</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.2052280325151</v>
+      </c>
+      <c r="N6">
+        <v>15.34010695137163</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.4711560507939</v>
+        <v>19.61788557034372</v>
       </c>
       <c r="C7">
-        <v>13.95524028461134</v>
+        <v>13.28270540221298</v>
       </c>
       <c r="D7">
-        <v>4.557614057068194</v>
+        <v>2.360644537933618</v>
       </c>
       <c r="E7">
-        <v>11.55554376854877</v>
+        <v>6.324880097579104</v>
       </c>
       <c r="F7">
-        <v>35.79824783724943</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>38.76167388908646</v>
       </c>
       <c r="I7">
-        <v>24.1763918461005</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.85163250254702</v>
       </c>
       <c r="K7">
-        <v>16.72202107702859</v>
+        <v>17.05461554958165</v>
       </c>
       <c r="L7">
-        <v>14.04763391769058</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.40543541813279</v>
+      </c>
+      <c r="N7">
+        <v>15.28962626254107</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43361182572524</v>
+        <v>21.40533866365548</v>
       </c>
       <c r="C8">
-        <v>15.45074116707601</v>
+        <v>14.59795407413826</v>
       </c>
       <c r="D8">
-        <v>4.533263725124852</v>
+        <v>2.396021863236768</v>
       </c>
       <c r="E8">
-        <v>12.82784813300944</v>
+        <v>6.377406989038802</v>
       </c>
       <c r="F8">
-        <v>38.50006626643591</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>40.54888974419971</v>
       </c>
       <c r="I8">
-        <v>25.47184475345998</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.827197679274657</v>
       </c>
       <c r="K8">
-        <v>18.45935787284524</v>
+        <v>18.53271972827861</v>
       </c>
       <c r="L8">
-        <v>15.5627135308045</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15.2835114558411</v>
+      </c>
+      <c r="N8">
+        <v>15.07795784024565</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.9312174201837</v>
+        <v>24.80989663197691</v>
       </c>
       <c r="C9">
-        <v>18.12786851870697</v>
+        <v>17.11014665045982</v>
       </c>
       <c r="D9">
-        <v>4.511114407674575</v>
+        <v>2.471146562390886</v>
       </c>
       <c r="E9">
-        <v>15.12013996786035</v>
+        <v>6.504470092264719</v>
       </c>
       <c r="F9">
-        <v>43.67527483558204</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>44.17279950319141</v>
       </c>
       <c r="I9">
-        <v>28.06845302207109</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.799239109287031</v>
       </c>
       <c r="K9">
-        <v>21.56117188659008</v>
+        <v>21.53110657268976</v>
       </c>
       <c r="L9">
-        <v>18.28636990284946</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16.9755047545557</v>
+      </c>
+      <c r="N9">
+        <v>14.70614844253162</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.30478828782415</v>
+        <v>27.25662377773833</v>
       </c>
       <c r="C10">
-        <v>19.95413676313824</v>
+        <v>18.82108170537417</v>
       </c>
       <c r="D10">
-        <v>4.515516257654455</v>
+        <v>2.530886653446355</v>
       </c>
       <c r="E10">
-        <v>16.69543700112589</v>
+        <v>6.61353725611261</v>
       </c>
       <c r="F10">
-        <v>47.40391384432626</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>46.90474315177647</v>
       </c>
       <c r="I10">
-        <v>30.01335895872371</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.792235448003176</v>
       </c>
       <c r="K10">
-        <v>23.67002356323452</v>
+        <v>23.67699486807783</v>
       </c>
       <c r="L10">
-        <v>20.15339909200798</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>18.19475572216082</v>
+      </c>
+      <c r="N10">
+        <v>14.46335676400656</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.3465772052165</v>
+        <v>28.33068124018897</v>
       </c>
       <c r="C11">
-        <v>20.75836679211567</v>
+        <v>19.5726851787405</v>
       </c>
       <c r="D11">
-        <v>4.523357286073399</v>
+        <v>2.559342827898163</v>
       </c>
       <c r="E11">
-        <v>17.3923142809389</v>
+        <v>6.66682518698661</v>
       </c>
       <c r="F11">
-        <v>49.08789377746272</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>48.16361757411099</v>
       </c>
       <c r="I11">
-        <v>30.90844326804785</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.792332224871691</v>
       </c>
       <c r="K11">
-        <v>24.59663002385726</v>
+        <v>24.6177866752214</v>
       </c>
       <c r="L11">
-        <v>20.97805250184464</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18.84268163975708</v>
+      </c>
+      <c r="N11">
+        <v>14.3606187785549</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.7360613722496</v>
+        <v>28.73210841464592</v>
       </c>
       <c r="C12">
-        <v>21.05947602254644</v>
+        <v>19.85370754841178</v>
       </c>
       <c r="D12">
-        <v>4.527299974416628</v>
+        <v>2.570332466857249</v>
       </c>
       <c r="E12">
-        <v>17.65374745674005</v>
+        <v>6.687556444234217</v>
       </c>
       <c r="F12">
-        <v>49.72436414965007</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>48.64284279590397</v>
       </c>
       <c r="I12">
-        <v>31.24918588657505</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.792873364454966</v>
       </c>
       <c r="K12">
-        <v>24.94321301287064</v>
+        <v>24.96925562888362</v>
       </c>
       <c r="L12">
-        <v>21.28721273251746</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19.11040808344985</v>
+      </c>
+      <c r="N12">
+        <v>14.32293843320206</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.65239448026622</v>
+        <v>28.64588390883787</v>
       </c>
       <c r="C13">
-        <v>20.99477282002098</v>
+        <v>19.79333982673747</v>
       </c>
       <c r="D13">
-        <v>4.526405197770835</v>
+        <v>2.567955603396171</v>
       </c>
       <c r="E13">
-        <v>17.59754583488447</v>
+        <v>6.683066613145268</v>
       </c>
       <c r="F13">
-        <v>49.58733220761401</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>48.53951666934033</v>
       </c>
       <c r="I13">
-        <v>31.17571494711813</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.792733826329895</v>
       </c>
       <c r="K13">
-        <v>24.86875445886152</v>
+        <v>24.89376824687445</v>
       </c>
       <c r="L13">
-        <v>21.22076066056411</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>19.05291299935509</v>
+      </c>
+      <c r="N13">
+        <v>14.33099705620426</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.37871812945425</v>
+        <v>28.36381106060585</v>
       </c>
       <c r="C14">
-        <v>20.7832056763573</v>
+        <v>19.59587552511691</v>
       </c>
       <c r="D14">
-        <v>4.523661303656139</v>
+        <v>2.560242474562773</v>
       </c>
       <c r="E14">
-        <v>17.41386944640151</v>
+        <v>6.668519541121665</v>
       </c>
       <c r="F14">
-        <v>49.14027714662911</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>48.20299170986346</v>
       </c>
       <c r="I14">
-        <v>30.93643824558771</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.792366434890933</v>
       </c>
       <c r="K14">
-        <v>24.62522732401313</v>
+        <v>24.64679633985201</v>
       </c>
       <c r="L14">
-        <v>21.00354709243204</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18.86478219566767</v>
+      </c>
+      <c r="N14">
+        <v>14.3574935213977</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.21044405233747</v>
+        <v>28.19035377951246</v>
       </c>
       <c r="C15">
-        <v>20.65317967082601</v>
+        <v>19.47446294306626</v>
       </c>
       <c r="D15">
-        <v>4.522111684622845</v>
+        <v>2.555546796110949</v>
       </c>
       <c r="E15">
-        <v>17.3010543621231</v>
+        <v>6.659681736188594</v>
       </c>
       <c r="F15">
-        <v>48.86630404661771</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>47.99719618596167</v>
       </c>
       <c r="I15">
-        <v>30.79011903849106</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.792208122736095</v>
       </c>
       <c r="K15">
-        <v>24.47551256213639</v>
+        <v>24.49490491972493</v>
       </c>
       <c r="L15">
-        <v>20.87010532096015</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>18.74906037141916</v>
+      </c>
+      <c r="N15">
+        <v>14.37388659246067</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.23597724060314</v>
+        <v>27.18567263758918</v>
       </c>
       <c r="C16">
-        <v>19.9010756144857</v>
+        <v>18.77144546731714</v>
       </c>
       <c r="D16">
-        <v>4.515132306520372</v>
+        <v>2.529055162130729</v>
       </c>
       <c r="E16">
-        <v>16.64952837672972</v>
+        <v>6.610130658333907</v>
       </c>
       <c r="F16">
-        <v>47.29365776075799</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>46.82281135802936</v>
       </c>
       <c r="I16">
-        <v>29.95509477135914</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.792297871169381</v>
       </c>
       <c r="K16">
-        <v>23.60884227653323</v>
+        <v>23.61482458418187</v>
       </c>
       <c r="L16">
-        <v>20.09904486773913</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>18.15875755065182</v>
+      </c>
+      <c r="N16">
+        <v>14.47023550334074</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.62874440294384</v>
+        <v>26.55955568052079</v>
       </c>
       <c r="C17">
-        <v>19.43313906177196</v>
+        <v>18.33349032360375</v>
       </c>
       <c r="D17">
-        <v>4.512435193993205</v>
+        <v>2.513150836703272</v>
       </c>
       <c r="E17">
-        <v>16.24503549833957</v>
+        <v>6.580689525537166</v>
       </c>
       <c r="F17">
-        <v>46.32608641284789</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>46.10659586704618</v>
       </c>
       <c r="I17">
-        <v>29.44566532112332</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.793215680516134</v>
       </c>
       <c r="K17">
-        <v>23.06905561230093</v>
+        <v>23.06606171799929</v>
       </c>
       <c r="L17">
-        <v>19.61999147839688</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17.8426654386386</v>
+      </c>
+      <c r="N17">
+        <v>14.5313931620666</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.27587738089591</v>
+        <v>26.19574016831196</v>
       </c>
       <c r="C18">
-        <v>19.16146951617207</v>
+        <v>18.0790591522475</v>
       </c>
       <c r="D18">
-        <v>4.511424335188774</v>
+        <v>2.504121501255371</v>
       </c>
       <c r="E18">
-        <v>16.01049871790329</v>
+        <v>6.564099844361092</v>
       </c>
       <c r="F18">
-        <v>45.76837313189091</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>45.6961444385375</v>
       </c>
       <c r="I18">
-        <v>29.15360316166524</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.794050428293582</v>
       </c>
       <c r="K18">
-        <v>22.75547747433661</v>
+        <v>22.74707712804614</v>
       </c>
       <c r="L18">
-        <v>19.34210162069998</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17.66033765517651</v>
+      </c>
+      <c r="N18">
+        <v>14.56728703031385</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.15577150254884</v>
+        <v>26.07191621187105</v>
       </c>
       <c r="C19">
-        <v>19.06904249209669</v>
+        <v>17.99247150733117</v>
       </c>
       <c r="D19">
-        <v>4.511171139105907</v>
+        <v>2.501083837981765</v>
       </c>
       <c r="E19">
-        <v>15.9307545574341</v>
+        <v>6.558541276089491</v>
       </c>
       <c r="F19">
-        <v>45.57932315389293</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>45.557425405052</v>
       </c>
       <c r="I19">
-        <v>29.05487125307712</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.794384831138317</v>
       </c>
       <c r="K19">
-        <v>22.64876034242069</v>
+        <v>22.63849047010133</v>
       </c>
       <c r="L19">
-        <v>19.24759707300052</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17.59851516926878</v>
+      </c>
+      <c r="N19">
+        <v>14.57956011820142</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.69375526124652</v>
+        <v>26.62658668428796</v>
       </c>
       <c r="C20">
-        <v>19.48321042607163</v>
+        <v>18.3803716690975</v>
       </c>
       <c r="D20">
-        <v>4.512665465482429</v>
+        <v>2.514831425148546</v>
       </c>
       <c r="E20">
-        <v>16.28828680122902</v>
+        <v>6.583787809032721</v>
       </c>
       <c r="F20">
-        <v>46.42920612688007</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>46.18268221985093</v>
       </c>
       <c r="I20">
-        <v>29.49979495849687</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.793085997154972</v>
       </c>
       <c r="K20">
-        <v>23.12683567387537</v>
+        <v>23.12482320679826</v>
       </c>
       <c r="L20">
-        <v>19.67122795119305</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>17.87636773504838</v>
+      </c>
+      <c r="N20">
+        <v>14.52480778075608</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.45923588007859</v>
+        <v>28.44680367834431</v>
       </c>
       <c r="C21">
-        <v>20.84543796544899</v>
+        <v>19.65397094350098</v>
       </c>
       <c r="D21">
-        <v>4.524439663238887</v>
+        <v>2.5625019369355</v>
       </c>
       <c r="E21">
-        <v>17.46788307664892</v>
+        <v>6.672777170835513</v>
       </c>
       <c r="F21">
-        <v>49.27161576441749</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>48.30176675523313</v>
       </c>
       <c r="I21">
-        <v>31.00666790581158</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.792460377851469</v>
       </c>
       <c r="K21">
-        <v>24.69687040894493</v>
+        <v>24.71946533683104</v>
       </c>
       <c r="L21">
-        <v>21.06742885097058</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>18.92014166059742</v>
+      </c>
+      <c r="N21">
+        <v>14.34967661632141</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.58408122475394</v>
+        <v>29.60573912312395</v>
       </c>
       <c r="C22">
-        <v>21.71593178468261</v>
+        <v>20.46553917649544</v>
       </c>
       <c r="D22">
-        <v>4.537886556025106</v>
+        <v>2.594922216318573</v>
       </c>
       <c r="E22">
-        <v>18.22470573121419</v>
+        <v>6.734169787571573</v>
       </c>
       <c r="F22">
-        <v>51.12260635228954</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>49.7015613146715</v>
       </c>
       <c r="I22">
-        <v>32.00218144345097</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.795009926212334</v>
       </c>
       <c r="K22">
-        <v>25.69813286960082</v>
+        <v>25.73391576631189</v>
       </c>
       <c r="L22">
-        <v>21.96200307691111</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>19.69261935613812</v>
+      </c>
+      <c r="N22">
+        <v>14.24242353517435</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.98622017744299</v>
+        <v>28.98988479240433</v>
       </c>
       <c r="C23">
-        <v>21.25300222360694</v>
+        <v>20.03420136644413</v>
       </c>
       <c r="D23">
-        <v>4.530133613506239</v>
+        <v>2.577491812895851</v>
       </c>
       <c r="E23">
-        <v>17.82192491847517</v>
+        <v>6.701098666344056</v>
       </c>
       <c r="F23">
-        <v>50.13507766812833</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>48.95300795958883</v>
       </c>
       <c r="I23">
-        <v>31.46974651182169</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.793366766669346</v>
       </c>
       <c r="K23">
-        <v>25.16586393363722</v>
+        <v>25.19491242874255</v>
       </c>
       <c r="L23">
-        <v>21.48603177331164</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>19.2822593742599</v>
+      </c>
+      <c r="N23">
+        <v>14.29896349839496</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.66437559846871</v>
+        <v>26.59629398992973</v>
       </c>
       <c r="C24">
-        <v>19.46058143380833</v>
+        <v>18.35918486931632</v>
       </c>
       <c r="D24">
-        <v>4.512559688424473</v>
+        <v>2.514071277348025</v>
       </c>
       <c r="E24">
-        <v>16.26873910836258</v>
+        <v>6.58238602896947</v>
       </c>
       <c r="F24">
-        <v>46.38259023863856</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>46.1482795118324</v>
       </c>
       <c r="I24">
-        <v>29.47532043061905</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.79314367290105</v>
       </c>
       <c r="K24">
-        <v>23.10072345306524</v>
+        <v>23.09826804129177</v>
       </c>
       <c r="L24">
-        <v>19.64807168439219</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17.86113280420361</v>
+      </c>
+      <c r="N24">
+        <v>14.52778275541401</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.02086465325875</v>
+        <v>23.87253146968942</v>
       </c>
       <c r="C25">
-        <v>17.42953297337724</v>
+        <v>16.45494987319449</v>
       </c>
       <c r="D25">
-        <v>4.513883913707967</v>
+        <v>2.450110956437249</v>
       </c>
       <c r="E25">
-        <v>14.52030428333293</v>
+        <v>6.467416937494893</v>
       </c>
       <c r="F25">
-        <v>42.28885130266103</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>43.18026438314548</v>
       </c>
       <c r="I25">
-        <v>27.35993612432214</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.804532380784983</v>
       </c>
       <c r="K25">
-        <v>20.75318061118688</v>
+        <v>20.70771045487782</v>
       </c>
       <c r="L25">
-        <v>17.57442548534699</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>16.52171172728524</v>
+      </c>
+      <c r="N25">
+        <v>14.80172880319169</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.87425239467272</v>
+        <v>13.17133318506026</v>
       </c>
       <c r="C2">
-        <v>14.9614107426563</v>
+        <v>7.925280390252146</v>
       </c>
       <c r="D2">
-        <v>2.405963758444944</v>
+        <v>7.774272153351995</v>
       </c>
       <c r="E2">
-        <v>6.393230707315918</v>
+        <v>11.15523064852122</v>
       </c>
       <c r="F2">
-        <v>41.04146461517832</v>
+        <v>22.64905579245639</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.82912046537404</v>
       </c>
       <c r="J2">
-        <v>5.821881274744584</v>
+        <v>6.370193270079327</v>
       </c>
       <c r="K2">
-        <v>18.92201106104292</v>
+        <v>11.8949206598858</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.51970147002822</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>15.02340942271087</v>
+        <v>12.23267919820009</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.77093825736122</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.49691240780546</v>
+        <v>12.30685367273851</v>
       </c>
       <c r="C3">
-        <v>13.9298245983888</v>
+        <v>7.413764735643764</v>
       </c>
       <c r="D3">
-        <v>2.37754083313783</v>
+        <v>7.394917599759572</v>
       </c>
       <c r="E3">
-        <v>6.349136498400217</v>
+        <v>10.66949428923475</v>
       </c>
       <c r="F3">
-        <v>39.62207838235665</v>
+        <v>22.28671298757851</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.95610517202964</v>
       </c>
       <c r="J3">
-        <v>5.838779227557916</v>
+        <v>6.261377714889919</v>
       </c>
       <c r="K3">
-        <v>17.78028065062547</v>
+        <v>11.16416494332445</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.83261386795843</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>15.18479781811429</v>
+        <v>12.41986492609214</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>15.74581486161845</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.62275587364783</v>
+        <v>11.74471233266522</v>
       </c>
       <c r="C4">
-        <v>13.2862991256087</v>
+        <v>7.0817067585746</v>
       </c>
       <c r="D4">
-        <v>2.360735458364804</v>
+        <v>7.154989742000019</v>
       </c>
       <c r="E4">
-        <v>6.325005851856033</v>
+        <v>10.36585265215889</v>
       </c>
       <c r="F4">
-        <v>38.76633793308889</v>
+        <v>22.07989050969169</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.04392731489007</v>
       </c>
       <c r="J4">
-        <v>5.851556729589038</v>
+        <v>6.197014258644795</v>
       </c>
       <c r="K4">
-        <v>17.05862898905654</v>
+        <v>10.69047535985077</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.4077757628203</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>15.28904151072383</v>
+        <v>12.53748345070099</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>15.74298323481971</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.25955630249319</v>
+        <v>11.50772367935769</v>
       </c>
       <c r="C5">
-        <v>13.01802297376714</v>
+        <v>6.941857165510211</v>
       </c>
       <c r="D5">
-        <v>2.354038043962397</v>
+        <v>7.055585471527988</v>
       </c>
       <c r="E5">
-        <v>6.315897527283044</v>
+        <v>10.24094341654076</v>
       </c>
       <c r="F5">
-        <v>38.42177086701723</v>
+        <v>21.99954649608399</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14.08209670043074</v>
       </c>
       <c r="J5">
-        <v>5.857349318110582</v>
+        <v>6.171419313769431</v>
       </c>
       <c r="K5">
-        <v>16.75956215221565</v>
+        <v>10.49117222330537</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.23409497089722</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>15.33277137517031</v>
+        <v>12.58610718438895</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>15.74488814820964</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.19883308389394</v>
+        <v>11.46789328666112</v>
       </c>
       <c r="C6">
-        <v>12.97311362940408</v>
+        <v>6.918361222458016</v>
       </c>
       <c r="D6">
-        <v>2.352934746457646</v>
+        <v>7.038985095150299</v>
       </c>
       <c r="E6">
-        <v>6.314428455410652</v>
+        <v>10.22013733513126</v>
       </c>
       <c r="F6">
-        <v>38.36481276366451</v>
+        <v>21.98644302798633</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14.08857578708308</v>
       </c>
       <c r="J6">
-        <v>5.85834603120361</v>
+        <v>6.167208054476158</v>
       </c>
       <c r="K6">
-        <v>16.70960829907714</v>
+        <v>10.45770005923253</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.2052280325151</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>15.34010695137163</v>
+        <v>12.59422349798008</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>15.74538600205341</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.61788557034372</v>
+        <v>11.74154828995203</v>
       </c>
       <c r="C7">
-        <v>13.28270540221298</v>
+        <v>7.079839064194231</v>
       </c>
       <c r="D7">
-        <v>2.360644537933618</v>
+        <v>7.153655562257572</v>
       </c>
       <c r="E7">
-        <v>6.324880097579104</v>
+        <v>10.36417257066532</v>
       </c>
       <c r="F7">
-        <v>38.76167388908646</v>
+        <v>22.07879102691825</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.04443256323137</v>
       </c>
       <c r="J7">
-        <v>5.85163250254702</v>
+        <v>6.196666488157356</v>
       </c>
       <c r="K7">
-        <v>17.05461554958165</v>
+        <v>10.68781284823511</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.40543541813279</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>15.28962626254107</v>
+        <v>12.53813637732799</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>15.74299668443092</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.40533866365548</v>
+        <v>12.87974822691201</v>
       </c>
       <c r="C8">
-        <v>14.59795407413826</v>
+        <v>7.752634830160429</v>
       </c>
       <c r="D8">
-        <v>2.396021863236768</v>
+        <v>7.644995337711602</v>
       </c>
       <c r="E8">
-        <v>6.377406989038802</v>
+        <v>10.98897260930198</v>
       </c>
       <c r="F8">
-        <v>40.54888974419971</v>
+        <v>22.5208745048442</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>13.87080022999582</v>
       </c>
       <c r="J8">
-        <v>5.827197679274657</v>
+        <v>6.332176210873998</v>
       </c>
       <c r="K8">
-        <v>18.53271972827861</v>
+        <v>11.64815163934147</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.2835114558411</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>15.07795784024565</v>
+        <v>12.29667441484791</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.75959745738074</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.80989663197691</v>
+        <v>14.86451765565086</v>
       </c>
       <c r="C9">
-        <v>17.11014665045982</v>
+        <v>8.929982572899185</v>
       </c>
       <c r="D9">
-        <v>2.471146562390886</v>
+        <v>8.548273734585292</v>
       </c>
       <c r="E9">
-        <v>6.504470092264719</v>
+        <v>12.16444015540469</v>
       </c>
       <c r="F9">
-        <v>44.17279950319141</v>
+        <v>23.51144509520316</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13.61306654547063</v>
       </c>
       <c r="J9">
-        <v>5.799239109287031</v>
+        <v>6.616525005568478</v>
       </c>
       <c r="K9">
-        <v>21.53110657268976</v>
+        <v>13.33283440466801</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.9755047545557</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>14.70614844253162</v>
+        <v>11.84362706221478</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.89678259223711</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.25662377773833</v>
+        <v>16.17428643255436</v>
       </c>
       <c r="C10">
-        <v>18.82108170537417</v>
+        <v>9.709639582749286</v>
       </c>
       <c r="D10">
-        <v>2.530886653446355</v>
+        <v>9.170185674024811</v>
       </c>
       <c r="E10">
-        <v>6.61353725611261</v>
+        <v>12.99001149169217</v>
       </c>
       <c r="F10">
-        <v>46.90474315177647</v>
+        <v>24.31319273709822</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.48083869284464</v>
       </c>
       <c r="J10">
-        <v>5.792235448003176</v>
+        <v>6.835659850770079</v>
       </c>
       <c r="K10">
-        <v>23.67699486807783</v>
+        <v>14.44998737523696</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.19475572216082</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>14.46335676400656</v>
+        <v>11.52199554694205</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>16.06756155285975</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.33068124018897</v>
+        <v>16.73844274671068</v>
       </c>
       <c r="C11">
-        <v>19.5726851787405</v>
+        <v>10.04611803031993</v>
       </c>
       <c r="D11">
-        <v>2.559342827898163</v>
+        <v>9.443304536146311</v>
       </c>
       <c r="E11">
-        <v>6.66682518698661</v>
+        <v>13.35611445915779</v>
       </c>
       <c r="F11">
-        <v>48.16361757411099</v>
+        <v>24.69355674759969</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.43464498335491</v>
       </c>
       <c r="J11">
-        <v>5.792332224871691</v>
+        <v>6.937334572328004</v>
       </c>
       <c r="K11">
-        <v>24.6177866752214</v>
+        <v>14.93226627903849</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.84268163975708</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>14.3606187785549</v>
+        <v>11.37782353557658</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.16170264985072</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.73210841464592</v>
+        <v>16.94756688008761</v>
       </c>
       <c r="C12">
-        <v>19.85370754841178</v>
+        <v>10.17094679196101</v>
       </c>
       <c r="D12">
-        <v>2.570332466857249</v>
+        <v>9.545274562055596</v>
       </c>
       <c r="E12">
-        <v>6.687556444234217</v>
+        <v>13.49331261735738</v>
       </c>
       <c r="F12">
-        <v>48.64284279590397</v>
+        <v>24.83979791169997</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.41929607566621</v>
       </c>
       <c r="J12">
-        <v>5.792873364454966</v>
+        <v>6.976103338546253</v>
       </c>
       <c r="K12">
-        <v>24.96925562888362</v>
+        <v>15.11119131440773</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.11040808344985</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>14.32293843320206</v>
+        <v>11.32351208097414</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.19981397714022</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.64588390883787</v>
+        <v>16.90272810489207</v>
       </c>
       <c r="C13">
-        <v>19.79333982673747</v>
+        <v>10.14417733703999</v>
       </c>
       <c r="D13">
-        <v>2.567955603396171</v>
+        <v>9.523378780623924</v>
       </c>
       <c r="E13">
-        <v>6.683066613145268</v>
+        <v>13.46382951042406</v>
       </c>
       <c r="F13">
-        <v>48.53951666934033</v>
+        <v>24.80820486950528</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.42250416045828</v>
       </c>
       <c r="J13">
-        <v>5.792733826329895</v>
+        <v>6.967742219152822</v>
       </c>
       <c r="K13">
-        <v>24.89376824687445</v>
+        <v>15.07282089471696</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.05291299935509</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>14.33099705620426</v>
+        <v>11.33519682396137</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>16.1914950301073</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.36381106060585</v>
+        <v>16.75573763691316</v>
       </c>
       <c r="C14">
-        <v>19.59587552511691</v>
+        <v>10.05643947527351</v>
       </c>
       <c r="D14">
-        <v>2.560242474562773</v>
+        <v>9.451723038840729</v>
       </c>
       <c r="E14">
-        <v>6.668519541121665</v>
+        <v>13.36743102004406</v>
       </c>
       <c r="F14">
-        <v>48.20299170986346</v>
+        <v>24.70554414634435</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.4333384541807</v>
       </c>
       <c r="J14">
-        <v>5.792366434890933</v>
+        <v>6.940518861398851</v>
       </c>
       <c r="K14">
-        <v>24.64679633985201</v>
+        <v>14.94706062108973</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.86478219566767</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>14.3574935213977</v>
+        <v>11.373349764786</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>16.1647882108452</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.19035377951246</v>
+        <v>16.66511577726146</v>
       </c>
       <c r="C15">
-        <v>19.47446294306626</v>
+        <v>10.0023612837075</v>
       </c>
       <c r="D15">
-        <v>2.555546796110949</v>
+        <v>9.407641279628416</v>
       </c>
       <c r="E15">
-        <v>6.659681736188594</v>
+        <v>13.30819499575704</v>
       </c>
       <c r="F15">
-        <v>47.99719618596167</v>
+        <v>24.64294740633356</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.44025809311551</v>
       </c>
       <c r="J15">
-        <v>5.792208122736095</v>
+        <v>6.923877959220598</v>
       </c>
       <c r="K15">
-        <v>24.49490491972493</v>
+        <v>14.86954729800466</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.74906037141916</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>14.37388659246067</v>
+        <v>11.39675569912829</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>16.14875293865093</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.18567263758918</v>
+        <v>16.13678400946171</v>
       </c>
       <c r="C16">
-        <v>18.77144546731714</v>
+        <v>9.687286171109314</v>
       </c>
       <c r="D16">
-        <v>2.529055162130729</v>
+        <v>9.152135471694987</v>
       </c>
       <c r="E16">
-        <v>6.610130658333907</v>
+        <v>12.96588853785196</v>
       </c>
       <c r="F16">
-        <v>46.82281135802936</v>
+        <v>24.28864610762356</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.48414995942331</v>
       </c>
       <c r="J16">
-        <v>5.792297871169381</v>
+        <v>6.829053517428201</v>
       </c>
       <c r="K16">
-        <v>23.61482458418187</v>
+        <v>14.41794966219633</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.15875755065182</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>14.47023550334074</v>
+        <v>11.53145853402814</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>16.06174860898927</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.55955568052079</v>
+        <v>15.804590017463</v>
       </c>
       <c r="C17">
-        <v>18.33349032360375</v>
+        <v>9.489357412663372</v>
       </c>
       <c r="D17">
-        <v>2.513150836703272</v>
+        <v>8.992846477572922</v>
       </c>
       <c r="E17">
-        <v>6.580689525537166</v>
+        <v>12.75341253828891</v>
       </c>
       <c r="F17">
-        <v>46.10659586704618</v>
+        <v>24.07526962064609</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>13.51474631729721</v>
       </c>
       <c r="J17">
-        <v>5.793215680516134</v>
+        <v>6.771377148426944</v>
       </c>
       <c r="K17">
-        <v>23.06606171799929</v>
+        <v>14.13428583397151</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.8426654386386</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>14.5313931620666</v>
+        <v>11.61462550187805</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>16.01265807792155</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.19574016831196</v>
+        <v>15.61053769959329</v>
       </c>
       <c r="C18">
-        <v>18.0790591522475</v>
+        <v>9.373799960592855</v>
       </c>
       <c r="D18">
-        <v>2.504121501255371</v>
+        <v>8.900307963734347</v>
       </c>
       <c r="E18">
-        <v>6.564099844361092</v>
+        <v>12.63031564554104</v>
       </c>
       <c r="F18">
-        <v>45.6961444385375</v>
+        <v>23.95401646452057</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.53364972098846</v>
       </c>
       <c r="J18">
-        <v>5.794050428293582</v>
+        <v>6.7383915453082</v>
       </c>
       <c r="K18">
-        <v>22.74707712804614</v>
+        <v>13.96868848818634</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.66033765517651</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>14.56728703031385</v>
+        <v>11.66266388171245</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.98596564205972</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.07191621187105</v>
+        <v>15.5443212711806</v>
       </c>
       <c r="C19">
-        <v>17.99247150733117</v>
+        <v>9.334378998459776</v>
       </c>
       <c r="D19">
-        <v>2.501083837981765</v>
+        <v>8.868819648044846</v>
       </c>
       <c r="E19">
-        <v>6.558541276089491</v>
+        <v>12.58848757732547</v>
       </c>
       <c r="F19">
-        <v>45.557425405052</v>
+        <v>23.91321695790476</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.54027019157997</v>
       </c>
       <c r="J19">
-        <v>5.794384831138317</v>
+        <v>6.727256139479372</v>
       </c>
       <c r="K19">
-        <v>22.63849047010133</v>
+        <v>13.9122001138498</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.59851516926878</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14.57956011820142</v>
+        <v>11.67896442709514</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.97719007512902</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.62658668428796</v>
+        <v>15.84026106725374</v>
       </c>
       <c r="C20">
-        <v>18.3803716690975</v>
+        <v>9.510604473686271</v>
       </c>
       <c r="D20">
-        <v>2.514831425148546</v>
+        <v>9.009898618276328</v>
       </c>
       <c r="E20">
-        <v>6.583787809032721</v>
+        <v>12.77612331889205</v>
       </c>
       <c r="F20">
-        <v>46.18268221985093</v>
+        <v>24.0978315370062</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>13.51135323028479</v>
       </c>
       <c r="J20">
-        <v>5.793085997154972</v>
+        <v>6.777497550025632</v>
       </c>
       <c r="K20">
-        <v>23.12482320679826</v>
+        <v>14.16473485325399</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.87636773504838</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>14.52480778075608</v>
+        <v>11.60575140483136</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.01772342901777</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.44680367834431</v>
+        <v>16.79903433175717</v>
       </c>
       <c r="C21">
-        <v>19.65397094350098</v>
+        <v>10.08228022706167</v>
       </c>
       <c r="D21">
-        <v>2.5625019369355</v>
+        <v>9.47280984383575</v>
       </c>
       <c r="E21">
-        <v>6.672777170835513</v>
+        <v>13.39578513026155</v>
       </c>
       <c r="F21">
-        <v>48.30176675523313</v>
+        <v>24.73563858285361</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.430096863622</v>
       </c>
       <c r="J21">
-        <v>5.792460377851469</v>
+        <v>6.948507928607578</v>
       </c>
       <c r="K21">
-        <v>24.71946533683104</v>
+        <v>14.98409976233769</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.92014166059742</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>14.34967661632141</v>
+        <v>11.36213583159752</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.17256508372859</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.60573912312395</v>
+        <v>17.39938434770229</v>
       </c>
       <c r="C22">
-        <v>20.46553917649544</v>
+        <v>10.44083108251712</v>
       </c>
       <c r="D22">
-        <v>2.594922216318573</v>
+        <v>9.766859477645918</v>
       </c>
       <c r="E22">
-        <v>6.734169787571573</v>
+        <v>13.79236919862822</v>
       </c>
       <c r="F22">
-        <v>49.7015613146715</v>
+        <v>25.1653181588561</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.3895534662821</v>
       </c>
       <c r="J22">
-        <v>5.795009926212334</v>
+        <v>7.061820082942133</v>
       </c>
       <c r="K22">
-        <v>25.73391576631189</v>
+        <v>15.49802936334572</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.69261935613812</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>14.24242353517435</v>
+        <v>11.20455832650764</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.28815589170564</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.98988479240433</v>
+        <v>17.08135440410559</v>
       </c>
       <c r="C23">
-        <v>20.03420136644413</v>
+        <v>10.25083514543736</v>
       </c>
       <c r="D23">
-        <v>2.577491812895851</v>
+        <v>9.610708812466218</v>
       </c>
       <c r="E23">
-        <v>6.701098666344056</v>
+        <v>13.58149480771076</v>
       </c>
       <c r="F23">
-        <v>48.95300795958883</v>
+        <v>24.93483007777657</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.40999613739811</v>
       </c>
       <c r="J23">
-        <v>5.793366766669346</v>
+        <v>7.001207695876937</v>
       </c>
       <c r="K23">
-        <v>25.19491242874255</v>
+        <v>15.22570035175</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.2822593742599</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>14.29896349839496</v>
+        <v>11.28851879933524</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.22511527163264</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.59629398992973</v>
+        <v>15.82414374993658</v>
       </c>
       <c r="C24">
-        <v>18.35918486931632</v>
+        <v>9.501004178821958</v>
       </c>
       <c r="D24">
-        <v>2.514071277348025</v>
+        <v>9.002192335611342</v>
       </c>
       <c r="E24">
-        <v>6.58238602896947</v>
+        <v>12.76585870180458</v>
       </c>
       <c r="F24">
-        <v>46.1482795118324</v>
+        <v>24.08762686879895</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>13.51288316502696</v>
       </c>
       <c r="J24">
-        <v>5.79314367290105</v>
+        <v>6.774729975159059</v>
       </c>
       <c r="K24">
-        <v>23.09826804129177</v>
+        <v>14.15097668776398</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.86113280420361</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>14.52778275541401</v>
+        <v>11.60976268275773</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16.01542862438459</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.87253146968942</v>
+        <v>14.35382769201384</v>
       </c>
       <c r="C25">
-        <v>16.45494987319449</v>
+        <v>8.626565799158428</v>
       </c>
       <c r="D25">
-        <v>2.450110956437249</v>
+        <v>8.310941221502596</v>
       </c>
       <c r="E25">
-        <v>6.467416937494893</v>
+        <v>11.85265011844827</v>
       </c>
       <c r="F25">
-        <v>43.18026438314548</v>
+        <v>23.23034510062449</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.6732633403558</v>
       </c>
       <c r="J25">
-        <v>5.804532380784983</v>
+        <v>6.53772370365675</v>
       </c>
       <c r="K25">
-        <v>20.70771045487782</v>
+        <v>12.89831981939213</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.52171172728524</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.80172880319169</v>
+        <v>11.9641235742951</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.84781511588174</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.17133318506026</v>
+        <v>10.25756710338925</v>
       </c>
       <c r="C2">
-        <v>7.925280390252146</v>
+        <v>5.342309548077227</v>
       </c>
       <c r="D2">
-        <v>7.774272153351995</v>
+        <v>9.297245342656394</v>
       </c>
       <c r="E2">
-        <v>11.15523064852122</v>
+        <v>13.7335740058896</v>
       </c>
       <c r="F2">
-        <v>22.64905579245639</v>
+        <v>32.52346818206428</v>
       </c>
       <c r="I2">
-        <v>13.82912046537404</v>
+        <v>22.24974157687664</v>
       </c>
       <c r="J2">
-        <v>6.370193270079327</v>
+        <v>9.921764148115141</v>
       </c>
       <c r="K2">
-        <v>11.8949206598858</v>
+        <v>10.47487306526676</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.23267919820009</v>
+        <v>18.85652582045357</v>
       </c>
       <c r="O2">
-        <v>15.77093825736122</v>
+        <v>24.48923716574427</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.30685367273851</v>
+        <v>9.984085959012322</v>
       </c>
       <c r="C3">
-        <v>7.413764735643764</v>
+        <v>5.147060776718794</v>
       </c>
       <c r="D3">
-        <v>7.394917599759572</v>
+        <v>9.234468675092797</v>
       </c>
       <c r="E3">
-        <v>10.66949428923475</v>
+        <v>13.66831861141287</v>
       </c>
       <c r="F3">
-        <v>22.28671298757851</v>
+        <v>32.56530234486023</v>
       </c>
       <c r="I3">
-        <v>13.95610517202964</v>
+        <v>22.33373777365707</v>
       </c>
       <c r="J3">
-        <v>6.261377714889919</v>
+        <v>9.927571469992628</v>
       </c>
       <c r="K3">
-        <v>11.16416494332445</v>
+        <v>10.29322046947333</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.41986492609214</v>
+        <v>18.91345717709833</v>
       </c>
       <c r="O3">
-        <v>15.74581486161845</v>
+        <v>24.55969453908656</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.74471233266522</v>
+        <v>9.813959927715334</v>
       </c>
       <c r="C4">
-        <v>7.0817067585746</v>
+        <v>5.024042825955796</v>
       </c>
       <c r="D4">
-        <v>7.154989742000019</v>
+        <v>9.197417890228325</v>
       </c>
       <c r="E4">
-        <v>10.36585265215889</v>
+        <v>13.63099248755584</v>
       </c>
       <c r="F4">
-        <v>22.07989050969169</v>
+        <v>32.59838166921287</v>
       </c>
       <c r="I4">
-        <v>14.04392731489007</v>
+        <v>22.38922204329289</v>
       </c>
       <c r="J4">
-        <v>6.197014258644795</v>
+        <v>9.9326860440286</v>
       </c>
       <c r="K4">
-        <v>10.69047535985077</v>
+        <v>10.18169473288701</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.53748345070099</v>
+        <v>18.95006846841519</v>
       </c>
       <c r="O4">
-        <v>15.74298323481971</v>
+        <v>24.60776970458086</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.50772367935769</v>
+        <v>9.744183429228711</v>
       </c>
       <c r="C5">
-        <v>6.941857165510211</v>
+        <v>4.973201039009396</v>
       </c>
       <c r="D5">
-        <v>7.055585471527988</v>
+        <v>9.182708343453371</v>
       </c>
       <c r="E5">
-        <v>10.24094341654076</v>
+        <v>13.61648340286945</v>
       </c>
       <c r="F5">
-        <v>21.99954649608399</v>
+        <v>32.61371867737716</v>
       </c>
       <c r="I5">
-        <v>14.08209670043074</v>
+        <v>22.4128151439122</v>
       </c>
       <c r="J5">
-        <v>6.171419313769431</v>
+        <v>9.935160187147012</v>
       </c>
       <c r="K5">
-        <v>10.49117222330537</v>
+        <v>10.13630764894352</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.58610718438895</v>
+        <v>18.96540528594443</v>
       </c>
       <c r="O5">
-        <v>15.74488814820964</v>
+        <v>24.62856941878221</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.46789328666112</v>
+        <v>9.732573209732053</v>
       </c>
       <c r="C6">
-        <v>6.918361222458016</v>
+        <v>4.964718264781778</v>
       </c>
       <c r="D6">
-        <v>7.038985095150299</v>
+        <v>9.180289699009297</v>
       </c>
       <c r="E6">
-        <v>10.22013733513126</v>
+        <v>13.61411689918657</v>
       </c>
       <c r="F6">
-        <v>21.98644302798633</v>
+        <v>32.61637745453412</v>
       </c>
       <c r="I6">
-        <v>14.08857578708308</v>
+        <v>22.416792106563</v>
       </c>
       <c r="J6">
-        <v>6.167208054476158</v>
+        <v>9.935594577258909</v>
       </c>
       <c r="K6">
-        <v>10.45770005923253</v>
+        <v>10.12877652901309</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.59422349798008</v>
+        <v>18.96797719933506</v>
       </c>
       <c r="O6">
-        <v>15.74538600205341</v>
+        <v>24.63209614194823</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.74154828995203</v>
+        <v>9.813020569770535</v>
       </c>
       <c r="C7">
-        <v>7.079839064194231</v>
+        <v>5.023359926888494</v>
       </c>
       <c r="D7">
-        <v>7.153655562257572</v>
+        <v>9.197217920337271</v>
       </c>
       <c r="E7">
-        <v>10.36417257066532</v>
+        <v>13.63079395650552</v>
       </c>
       <c r="F7">
-        <v>22.07879102691825</v>
+        <v>32.59858099417683</v>
       </c>
       <c r="I7">
-        <v>14.04443256323137</v>
+        <v>22.3895362493383</v>
       </c>
       <c r="J7">
-        <v>6.196666488157356</v>
+        <v>9.932717831942432</v>
       </c>
       <c r="K7">
-        <v>10.68781284823511</v>
+        <v>10.1810823042552</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.53813637732799</v>
+        <v>18.9502736143913</v>
       </c>
       <c r="O7">
-        <v>15.74299668443092</v>
+        <v>24.60804532535947</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.87974822691201</v>
+        <v>10.16379096040405</v>
       </c>
       <c r="C8">
-        <v>7.752634830160429</v>
+        <v>5.275682272926438</v>
       </c>
       <c r="D8">
-        <v>7.644995337711602</v>
+        <v>9.27529789075165</v>
       </c>
       <c r="E8">
-        <v>10.98897260930198</v>
+        <v>13.7105127720389</v>
       </c>
       <c r="F8">
-        <v>22.5208745048442</v>
+        <v>32.5363571082076</v>
       </c>
       <c r="I8">
-        <v>13.87080022999582</v>
+        <v>22.27789161465178</v>
       </c>
       <c r="J8">
-        <v>6.332176210873998</v>
+        <v>9.923445341818113</v>
       </c>
       <c r="K8">
-        <v>11.64815163934147</v>
+        <v>10.41227184375979</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.29667441484791</v>
+        <v>18.87581294114672</v>
       </c>
       <c r="O8">
-        <v>15.75959745738074</v>
+        <v>24.51253063482084</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.86451765565086</v>
+        <v>10.82976924833981</v>
       </c>
       <c r="C9">
-        <v>8.929982572899185</v>
+        <v>5.742607939962167</v>
       </c>
       <c r="D9">
-        <v>8.548273734585292</v>
+        <v>9.439662774317982</v>
       </c>
       <c r="E9">
-        <v>12.16444015540469</v>
+        <v>13.88800279789963</v>
       </c>
       <c r="F9">
-        <v>23.51144509520316</v>
+        <v>32.47306548654721</v>
       </c>
       <c r="I9">
-        <v>13.61306654547063</v>
+        <v>22.09000344145979</v>
       </c>
       <c r="J9">
-        <v>6.616525005568478</v>
+        <v>9.917528784546327</v>
       </c>
       <c r="K9">
-        <v>13.33283440466801</v>
+        <v>10.86320818063559</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.84362706221478</v>
+        <v>18.74287334184322</v>
       </c>
       <c r="O9">
-        <v>15.89678259223711</v>
+        <v>24.36350302943195</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.17428643255436</v>
+        <v>11.30033681783912</v>
       </c>
       <c r="C10">
-        <v>9.709639582749286</v>
+        <v>6.065149207830316</v>
       </c>
       <c r="D10">
-        <v>9.170185674024811</v>
+        <v>9.566432911740383</v>
       </c>
       <c r="E10">
-        <v>12.99001149169217</v>
+        <v>14.03046189438903</v>
       </c>
       <c r="F10">
-        <v>24.31319273709822</v>
+        <v>32.46242533222507</v>
       </c>
       <c r="I10">
-        <v>13.48083869284464</v>
+        <v>21.97091672658866</v>
       </c>
       <c r="J10">
-        <v>6.835659850770079</v>
+        <v>9.920624540936094</v>
       </c>
       <c r="K10">
-        <v>14.44998737523696</v>
+        <v>11.18978166969497</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.52199554694205</v>
+        <v>18.65309574235725</v>
       </c>
       <c r="O10">
-        <v>16.06756155285975</v>
+        <v>24.27745002746461</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.73844274671068</v>
+        <v>11.50934082294158</v>
       </c>
       <c r="C11">
-        <v>10.04611803031993</v>
+        <v>6.206822168571382</v>
       </c>
       <c r="D11">
-        <v>9.443304536146311</v>
+        <v>9.625220308046508</v>
       </c>
       <c r="E11">
-        <v>13.35611445915779</v>
+        <v>14.09769235535224</v>
       </c>
       <c r="F11">
-        <v>24.69355674759969</v>
+        <v>32.46536903938006</v>
       </c>
       <c r="I11">
-        <v>13.43464498335491</v>
+        <v>21.92086331595026</v>
       </c>
       <c r="J11">
-        <v>6.937334572328004</v>
+        <v>9.923639104852029</v>
       </c>
       <c r="K11">
-        <v>14.93226627903849</v>
+        <v>11.3366700977145</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.37782353557658</v>
+        <v>18.61395060943248</v>
       </c>
       <c r="O11">
-        <v>16.16170264985072</v>
+        <v>24.24341141619806</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.94756688008761</v>
+        <v>11.58768337372807</v>
       </c>
       <c r="C12">
-        <v>10.17094679196101</v>
+        <v>6.259701194822827</v>
       </c>
       <c r="D12">
-        <v>9.545274562055596</v>
+        <v>9.64762613965555</v>
       </c>
       <c r="E12">
-        <v>13.49331261735738</v>
+        <v>14.1234819591572</v>
       </c>
       <c r="F12">
-        <v>24.83979791169997</v>
+        <v>32.46760147230432</v>
       </c>
       <c r="I12">
-        <v>13.41929607566621</v>
+        <v>21.90250244880735</v>
       </c>
       <c r="J12">
-        <v>6.976103338546253</v>
+        <v>9.925010559799183</v>
       </c>
       <c r="K12">
-        <v>15.11119131440773</v>
+        <v>11.39200130176248</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.32351208097414</v>
+        <v>18.59936988239853</v>
       </c>
       <c r="O12">
-        <v>16.19981397714022</v>
+        <v>24.23125774153401</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.90272810489207</v>
+        <v>11.57084773038119</v>
       </c>
       <c r="C13">
-        <v>10.14417733703999</v>
+        <v>6.248347595968697</v>
       </c>
       <c r="D13">
-        <v>9.523378780623924</v>
+        <v>9.642794490392495</v>
       </c>
       <c r="E13">
-        <v>13.46382951042406</v>
+        <v>14.11791328031144</v>
       </c>
       <c r="F13">
-        <v>24.80820486950528</v>
+        <v>32.46707100132713</v>
       </c>
       <c r="I13">
-        <v>13.42250416045828</v>
+        <v>21.9064303902375</v>
       </c>
       <c r="J13">
-        <v>6.967742219152822</v>
+        <v>9.924704985830674</v>
       </c>
       <c r="K13">
-        <v>15.07282089471696</v>
+        <v>11.3800985339567</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.33519682396137</v>
+        <v>18.60249932634908</v>
       </c>
       <c r="O13">
-        <v>16.1914950301073</v>
+        <v>24.2338424949918</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.75573763691316</v>
+        <v>11.51580260617692</v>
       </c>
       <c r="C14">
-        <v>10.05643947527351</v>
+        <v>6.211188204740031</v>
       </c>
       <c r="D14">
-        <v>9.451723038840729</v>
+        <v>9.627060852604966</v>
       </c>
       <c r="E14">
-        <v>13.36743102004406</v>
+        <v>14.0998075543064</v>
       </c>
       <c r="F14">
-        <v>24.70554414634435</v>
+        <v>32.46553031434637</v>
       </c>
       <c r="I14">
-        <v>13.4333384541807</v>
+        <v>21.91934086130624</v>
       </c>
       <c r="J14">
-        <v>6.940518861398851</v>
+        <v>9.923747334250184</v>
       </c>
       <c r="K14">
-        <v>14.94706062108973</v>
+        <v>11.34122837450082</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.373349764786</v>
+        <v>18.61274618658626</v>
       </c>
       <c r="O14">
-        <v>16.1647882108452</v>
+        <v>24.24239676681063</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.66511577726146</v>
+        <v>11.4819792236837</v>
       </c>
       <c r="C15">
-        <v>10.0023612837075</v>
+        <v>6.188325621815856</v>
       </c>
       <c r="D15">
-        <v>9.407641279628416</v>
+        <v>9.617441844245386</v>
       </c>
       <c r="E15">
-        <v>13.30819499575704</v>
+        <v>14.08875982641279</v>
       </c>
       <c r="F15">
-        <v>24.64294740633356</v>
+        <v>32.46473209726103</v>
       </c>
       <c r="I15">
-        <v>13.44025809311551</v>
+        <v>21.92732618506333</v>
       </c>
       <c r="J15">
-        <v>6.923877959220598</v>
+        <v>9.923190651327063</v>
       </c>
       <c r="K15">
-        <v>14.86954729800466</v>
+        <v>11.31737972285775</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.39675569912829</v>
+        <v>18.61905425743197</v>
       </c>
       <c r="O15">
-        <v>16.14875293865093</v>
+        <v>24.24773239984521</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.13678400946171</v>
+        <v>11.28656952229433</v>
       </c>
       <c r="C16">
-        <v>9.687286171109314</v>
+        <v>6.055785080066247</v>
       </c>
       <c r="D16">
-        <v>9.152135471694987</v>
+        <v>9.562612120854729</v>
       </c>
       <c r="E16">
-        <v>12.96588853785196</v>
+        <v>14.02611551331223</v>
       </c>
       <c r="F16">
-        <v>24.28864610762356</v>
+        <v>32.46238946777718</v>
       </c>
       <c r="I16">
-        <v>13.48414995942331</v>
+        <v>21.97427080750683</v>
       </c>
       <c r="J16">
-        <v>6.829053517428201</v>
+        <v>9.92045976547911</v>
       </c>
       <c r="K16">
-        <v>14.41794966219633</v>
+        <v>11.18014403618522</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.53145853402814</v>
+        <v>18.65568798740458</v>
       </c>
       <c r="O16">
-        <v>16.06174860898927</v>
+        <v>24.27977744166406</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.804590017463</v>
+        <v>11.16534047827749</v>
       </c>
       <c r="C17">
-        <v>9.489357412663372</v>
+        <v>5.973149328450765</v>
       </c>
       <c r="D17">
-        <v>8.992846477572922</v>
+        <v>9.529250730623438</v>
       </c>
       <c r="E17">
-        <v>12.75341253828891</v>
+        <v>13.9882938794545</v>
       </c>
       <c r="F17">
-        <v>24.07526962064609</v>
+        <v>32.46294510629749</v>
       </c>
       <c r="I17">
-        <v>13.51474631729721</v>
+        <v>22.00412558333334</v>
       </c>
       <c r="J17">
-        <v>6.771377148426944</v>
+        <v>9.919195137530497</v>
       </c>
       <c r="K17">
-        <v>14.13428583397151</v>
+        <v>11.09548854917281</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.61462550187805</v>
+        <v>18.67859499361964</v>
       </c>
       <c r="O17">
-        <v>16.01265807792155</v>
+        <v>24.30074531614018</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.61053769959329</v>
+        <v>11.09514056666591</v>
       </c>
       <c r="C18">
-        <v>9.373799960592855</v>
+        <v>5.925146035354611</v>
       </c>
       <c r="D18">
-        <v>8.900307963734347</v>
+        <v>9.510168477661464</v>
       </c>
       <c r="E18">
-        <v>12.63031564554104</v>
+        <v>13.9667692457728</v>
       </c>
       <c r="F18">
-        <v>23.95401646452057</v>
+        <v>32.46399750485921</v>
       </c>
       <c r="I18">
-        <v>13.53364972098846</v>
+        <v>22.02168497717158</v>
       </c>
       <c r="J18">
-        <v>6.7383915453082</v>
+        <v>9.918619020833102</v>
       </c>
       <c r="K18">
-        <v>13.96868848818634</v>
+        <v>11.04664257124748</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.66266388171245</v>
+        <v>18.69193011652229</v>
       </c>
       <c r="O18">
-        <v>15.98596564205972</v>
+        <v>24.31328612328837</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.5443212711806</v>
+        <v>11.07129338897513</v>
       </c>
       <c r="C19">
-        <v>9.334378998459776</v>
+        <v>5.908813038213169</v>
       </c>
       <c r="D19">
-        <v>8.868819648044846</v>
+        <v>9.50372632029779</v>
       </c>
       <c r="E19">
-        <v>12.58848757732547</v>
+        <v>13.95952130302039</v>
       </c>
       <c r="F19">
-        <v>23.91321695790476</v>
+        <v>32.46447972588722</v>
       </c>
       <c r="I19">
-        <v>13.54027019157997</v>
+        <v>22.02769685089961</v>
       </c>
       <c r="J19">
-        <v>6.727256139479372</v>
+        <v>9.918449968118106</v>
       </c>
       <c r="K19">
-        <v>13.9122001138498</v>
+        <v>11.03007927034585</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.67896442709514</v>
+        <v>18.69647260764174</v>
       </c>
       <c r="O19">
-        <v>15.97719007512902</v>
+        <v>24.31761472510021</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.84026106725374</v>
+        <v>11.17829495107112</v>
       </c>
       <c r="C20">
-        <v>9.510604473686271</v>
+        <v>5.981995368168603</v>
       </c>
       <c r="D20">
-        <v>9.009898618276328</v>
+        <v>9.532791221736499</v>
       </c>
       <c r="E20">
-        <v>12.77612331889205</v>
+        <v>13.99229644542121</v>
       </c>
       <c r="F20">
-        <v>24.0978315370062</v>
+        <v>32.46281012368404</v>
       </c>
       <c r="I20">
-        <v>13.51135323028479</v>
+        <v>22.00090735808561</v>
       </c>
       <c r="J20">
-        <v>6.777497550025632</v>
+        <v>9.919314111504599</v>
       </c>
       <c r="K20">
-        <v>14.16473485325399</v>
+        <v>11.10451663217206</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.60575140483136</v>
+        <v>18.67613999157157</v>
       </c>
       <c r="O20">
-        <v>16.01772342901777</v>
+        <v>24.29846349372521</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.79903433175717</v>
+        <v>11.53199304486845</v>
       </c>
       <c r="C21">
-        <v>10.08228022706167</v>
+        <v>6.222124015631667</v>
       </c>
       <c r="D21">
-        <v>9.47280984383575</v>
+        <v>9.63167841975792</v>
       </c>
       <c r="E21">
-        <v>13.39578513026155</v>
+        <v>14.10511680972767</v>
       </c>
       <c r="F21">
-        <v>24.73563858285361</v>
+        <v>32.4659525337561</v>
       </c>
       <c r="I21">
-        <v>13.430096863622</v>
+        <v>21.91553263481165</v>
       </c>
       <c r="J21">
-        <v>6.948507928607578</v>
+        <v>9.924022389380456</v>
       </c>
       <c r="K21">
-        <v>14.98409976233769</v>
+        <v>11.35265381509544</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.36213583159752</v>
+        <v>18.60972985744825</v>
       </c>
       <c r="O21">
-        <v>16.17256508372859</v>
+        <v>24.23986418286226</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.39938434770229</v>
+        <v>11.75844612987041</v>
       </c>
       <c r="C22">
-        <v>10.44083108251712</v>
+        <v>6.374560937936648</v>
       </c>
       <c r="D22">
-        <v>9.766859477645918</v>
+        <v>9.697140319404793</v>
       </c>
       <c r="E22">
-        <v>13.79236919862822</v>
+        <v>14.18077144616177</v>
       </c>
       <c r="F22">
-        <v>25.1653181588561</v>
+        <v>32.47451987057931</v>
       </c>
       <c r="I22">
-        <v>13.3895534662821</v>
+        <v>21.86319377632717</v>
       </c>
       <c r="J22">
-        <v>7.061820082942133</v>
+        <v>9.928438995859496</v>
       </c>
       <c r="K22">
-        <v>15.49802936334572</v>
+        <v>11.51310009458761</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.20455832650764</v>
+        <v>18.56774106048747</v>
       </c>
       <c r="O22">
-        <v>16.28815589170564</v>
+        <v>24.2058567992193</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.08135440410559</v>
+        <v>11.63803783299683</v>
       </c>
       <c r="C23">
-        <v>10.25083514543736</v>
+        <v>6.29362708750129</v>
       </c>
       <c r="D23">
-        <v>9.610708812466218</v>
+        <v>9.662131341560791</v>
       </c>
       <c r="E23">
-        <v>13.58149480771076</v>
+        <v>14.14022349853714</v>
       </c>
       <c r="F23">
-        <v>24.93483007777657</v>
+        <v>32.46935206470013</v>
       </c>
       <c r="I23">
-        <v>13.40999613739811</v>
+        <v>21.89081127323377</v>
       </c>
       <c r="J23">
-        <v>7.001207695876937</v>
+        <v>9.9259595959218</v>
       </c>
       <c r="K23">
-        <v>15.22570035175</v>
+        <v>11.42764127074017</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.28851879933524</v>
+        <v>18.59002223679715</v>
       </c>
       <c r="O23">
-        <v>16.22511527163264</v>
+        <v>24.22361409963854</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.82414374993658</v>
+        <v>11.17243979710251</v>
       </c>
       <c r="C24">
-        <v>9.501004178821958</v>
+        <v>5.977997611796996</v>
       </c>
       <c r="D24">
-        <v>9.002192335611342</v>
+        <v>9.531190260269376</v>
       </c>
       <c r="E24">
-        <v>12.76585870180458</v>
+        <v>13.99048620020822</v>
       </c>
       <c r="F24">
-        <v>24.08762686879895</v>
+        <v>32.46286886610272</v>
       </c>
       <c r="I24">
-        <v>13.51288316502696</v>
+        <v>22.00236108586139</v>
       </c>
       <c r="J24">
-        <v>6.774729975159059</v>
+        <v>9.91925985314692</v>
       </c>
       <c r="K24">
-        <v>14.15097668776398</v>
+        <v>11.1004355813427</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.60976268275773</v>
+        <v>18.6772493821337</v>
       </c>
       <c r="O24">
-        <v>16.01542862438459</v>
+        <v>24.29949359158744</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.35382769201384</v>
+        <v>10.65252959041889</v>
       </c>
       <c r="C25">
-        <v>8.626565799158428</v>
+        <v>5.619666703328252</v>
       </c>
       <c r="D25">
-        <v>8.310941221502596</v>
+        <v>9.394078979813166</v>
       </c>
       <c r="E25">
-        <v>11.85265011844827</v>
+        <v>13.83780537589684</v>
       </c>
       <c r="F25">
-        <v>23.23034510062449</v>
+        <v>32.48389137838569</v>
       </c>
       <c r="I25">
-        <v>13.6732633403558</v>
+        <v>22.13750560257462</v>
       </c>
       <c r="J25">
-        <v>6.53772370365675</v>
+        <v>9.917819324322402</v>
       </c>
       <c r="K25">
-        <v>12.89831981939213</v>
+        <v>10.74182011742925</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.9641235742951</v>
+        <v>18.77744522385475</v>
       </c>
       <c r="O25">
-        <v>15.84781511588174</v>
+        <v>24.39971006594965</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.25756710338925</v>
+        <v>13.17133318506031</v>
       </c>
       <c r="C2">
-        <v>5.342309548077227</v>
+        <v>7.925280390252082</v>
       </c>
       <c r="D2">
-        <v>9.297245342656394</v>
+        <v>7.774272153352009</v>
       </c>
       <c r="E2">
-        <v>13.7335740058896</v>
+        <v>11.15523064852123</v>
       </c>
       <c r="F2">
-        <v>32.52346818206428</v>
+        <v>22.64905579245625</v>
       </c>
       <c r="I2">
-        <v>22.24974157687664</v>
+        <v>13.82912046537393</v>
       </c>
       <c r="J2">
-        <v>9.921764148115141</v>
+        <v>6.370193270079333</v>
       </c>
       <c r="K2">
-        <v>10.47487306526676</v>
+        <v>11.8949206598858</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.85652582045357</v>
+        <v>12.23267919820003</v>
       </c>
       <c r="O2">
-        <v>24.48923716574427</v>
+        <v>15.77093825736113</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.984085959012322</v>
+        <v>12.30685367273847</v>
       </c>
       <c r="C3">
-        <v>5.147060776718794</v>
+        <v>7.413764735643587</v>
       </c>
       <c r="D3">
-        <v>9.234468675092797</v>
+        <v>7.394917599759468</v>
       </c>
       <c r="E3">
-        <v>13.66831861141287</v>
+        <v>10.66949428923473</v>
       </c>
       <c r="F3">
-        <v>32.56530234486023</v>
+        <v>22.28671298757867</v>
       </c>
       <c r="I3">
-        <v>22.33373777365707</v>
+        <v>13.95610517202986</v>
       </c>
       <c r="J3">
-        <v>9.927571469992628</v>
+        <v>6.261377714889988</v>
       </c>
       <c r="K3">
-        <v>10.29322046947333</v>
+        <v>11.16416494332437</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.91345717709833</v>
+        <v>12.41986492609231</v>
       </c>
       <c r="O3">
-        <v>24.55969453908656</v>
+        <v>15.74581486161872</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.813959927715334</v>
+        <v>11.74471233266528</v>
       </c>
       <c r="C4">
-        <v>5.024042825955796</v>
+        <v>7.081706758574533</v>
       </c>
       <c r="D4">
-        <v>9.197417890228325</v>
+        <v>7.154989742000041</v>
       </c>
       <c r="E4">
-        <v>13.63099248755584</v>
+        <v>10.36585265215893</v>
       </c>
       <c r="F4">
-        <v>32.59838166921287</v>
+        <v>22.07989050969162</v>
       </c>
       <c r="I4">
-        <v>22.38922204329289</v>
+        <v>14.04392731488996</v>
       </c>
       <c r="J4">
-        <v>9.9326860440286</v>
+        <v>6.197014258644825</v>
       </c>
       <c r="K4">
-        <v>10.18169473288701</v>
+        <v>10.69047535985081</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.95006846841519</v>
+        <v>12.53748345070092</v>
       </c>
       <c r="O4">
-        <v>24.60776970458086</v>
+        <v>15.7429832348196</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.744183429228711</v>
+        <v>11.50772367935775</v>
       </c>
       <c r="C5">
-        <v>4.973201039009396</v>
+        <v>6.941857165510129</v>
       </c>
       <c r="D5">
-        <v>9.182708343453371</v>
+        <v>7.055585471527967</v>
       </c>
       <c r="E5">
-        <v>13.61648340286945</v>
+        <v>10.24094341654074</v>
       </c>
       <c r="F5">
-        <v>32.61371867737716</v>
+        <v>21.99954649608386</v>
       </c>
       <c r="I5">
-        <v>22.4128151439122</v>
+        <v>14.0820967004306</v>
       </c>
       <c r="J5">
-        <v>9.935160187147012</v>
+        <v>6.171419313769404</v>
       </c>
       <c r="K5">
-        <v>10.13630764894352</v>
+        <v>10.4911722233054</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.96540528594443</v>
+        <v>12.58610718438888</v>
       </c>
       <c r="O5">
-        <v>24.62856941878221</v>
+        <v>15.74488814820957</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.732573209732053</v>
+        <v>11.46789328666111</v>
       </c>
       <c r="C6">
-        <v>4.964718264781778</v>
+        <v>6.918361222458085</v>
       </c>
       <c r="D6">
-        <v>9.180289699009297</v>
+        <v>7.038985095150293</v>
       </c>
       <c r="E6">
-        <v>13.61411689918657</v>
+        <v>10.22013733513123</v>
       </c>
       <c r="F6">
-        <v>32.61637745453412</v>
+        <v>21.98644302798642</v>
       </c>
       <c r="I6">
-        <v>22.416792106563</v>
+        <v>14.08857578708312</v>
       </c>
       <c r="J6">
-        <v>9.935594577258909</v>
+        <v>6.167208054476162</v>
       </c>
       <c r="K6">
-        <v>10.12877652901309</v>
+        <v>10.45770005923254</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.96797719933506</v>
+        <v>12.59422349798011</v>
       </c>
       <c r="O6">
-        <v>24.63209614194823</v>
+        <v>15.74538600205349</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.813020569770535</v>
+        <v>11.74154828995205</v>
       </c>
       <c r="C7">
-        <v>5.023359926888494</v>
+        <v>7.079839064194313</v>
       </c>
       <c r="D7">
-        <v>9.197217920337271</v>
+        <v>7.153655562257463</v>
       </c>
       <c r="E7">
-        <v>13.63079395650552</v>
+        <v>10.36417257066533</v>
       </c>
       <c r="F7">
-        <v>32.59858099417683</v>
+        <v>22.07879102691819</v>
       </c>
       <c r="I7">
-        <v>22.3895362493383</v>
+        <v>14.04443256323135</v>
       </c>
       <c r="J7">
-        <v>9.932717831942432</v>
+        <v>6.196666488157407</v>
       </c>
       <c r="K7">
-        <v>10.1810823042552</v>
+        <v>10.68781284823513</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.9502736143913</v>
+        <v>12.53813637732799</v>
       </c>
       <c r="O7">
-        <v>24.60804532535947</v>
+        <v>15.74299668443092</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.16379096040405</v>
+        <v>12.87974822691199</v>
       </c>
       <c r="C8">
-        <v>5.275682272926438</v>
+        <v>7.752634830160479</v>
       </c>
       <c r="D8">
-        <v>9.27529789075165</v>
+        <v>7.644995337711561</v>
       </c>
       <c r="E8">
-        <v>13.7105127720389</v>
+        <v>10.98897260930199</v>
       </c>
       <c r="F8">
-        <v>32.5363571082076</v>
+        <v>22.52087450484427</v>
       </c>
       <c r="I8">
-        <v>22.27789161465178</v>
+        <v>13.87080022999593</v>
       </c>
       <c r="J8">
-        <v>9.923445341818113</v>
+        <v>6.332176210873993</v>
       </c>
       <c r="K8">
-        <v>10.41227184375979</v>
+        <v>11.64815163934149</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.87581294114672</v>
+        <v>12.29667441484794</v>
       </c>
       <c r="O8">
-        <v>24.51253063482084</v>
+        <v>15.75959745738082</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.82976924833981</v>
+        <v>14.86451765565087</v>
       </c>
       <c r="C9">
-        <v>5.742607939962167</v>
+        <v>8.929982572899346</v>
       </c>
       <c r="D9">
-        <v>9.439662774317982</v>
+        <v>8.548273734585244</v>
       </c>
       <c r="E9">
-        <v>13.88800279789963</v>
+        <v>12.16444015540468</v>
       </c>
       <c r="F9">
-        <v>32.47306548654721</v>
+        <v>23.51144509520306</v>
       </c>
       <c r="I9">
-        <v>22.09000344145979</v>
+        <v>13.61306654547059</v>
       </c>
       <c r="J9">
-        <v>9.917528784546327</v>
+        <v>6.616525005568496</v>
       </c>
       <c r="K9">
-        <v>10.86320818063559</v>
+        <v>13.33283440466807</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.74287334184322</v>
+        <v>11.84362706221474</v>
       </c>
       <c r="O9">
-        <v>24.36350302943195</v>
+        <v>15.89678259223704</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.30033681783912</v>
+        <v>16.17428643255433</v>
       </c>
       <c r="C10">
-        <v>6.065149207830316</v>
+        <v>9.709639582749272</v>
       </c>
       <c r="D10">
-        <v>9.566432911740383</v>
+        <v>9.170185674024752</v>
       </c>
       <c r="E10">
-        <v>14.03046189438903</v>
+        <v>12.99001149169217</v>
       </c>
       <c r="F10">
-        <v>32.46242533222507</v>
+        <v>24.31319273709812</v>
       </c>
       <c r="I10">
-        <v>21.97091672658866</v>
+        <v>13.48083869284457</v>
       </c>
       <c r="J10">
-        <v>9.920624540936094</v>
+        <v>6.835659850770059</v>
       </c>
       <c r="K10">
-        <v>11.18978166969497</v>
+        <v>14.44998737523692</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.65309574235725</v>
+        <v>11.52199554694192</v>
       </c>
       <c r="O10">
-        <v>24.27745002746461</v>
+        <v>16.0675615528597</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.50934082294158</v>
+        <v>16.73844274671065</v>
       </c>
       <c r="C11">
-        <v>6.206822168571382</v>
+        <v>10.04611803032</v>
       </c>
       <c r="D11">
-        <v>9.625220308046508</v>
+        <v>9.44330453614632</v>
       </c>
       <c r="E11">
-        <v>14.09769235535224</v>
+        <v>13.3561144591578</v>
       </c>
       <c r="F11">
-        <v>32.46536903938006</v>
+        <v>24.69355674759975</v>
       </c>
       <c r="I11">
-        <v>21.92086331595026</v>
+        <v>13.43464498335505</v>
       </c>
       <c r="J11">
-        <v>9.923639104852029</v>
+        <v>6.937334572328009</v>
       </c>
       <c r="K11">
-        <v>11.3366700977145</v>
+        <v>14.93226627903852</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.61395060943248</v>
+        <v>11.37782353557667</v>
       </c>
       <c r="O11">
-        <v>24.24341141619806</v>
+        <v>16.16170264985081</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.58768337372807</v>
+        <v>16.94756688008757</v>
       </c>
       <c r="C12">
-        <v>6.259701194822827</v>
+        <v>10.17094679196093</v>
       </c>
       <c r="D12">
-        <v>9.64762613965555</v>
+        <v>9.54527456205558</v>
       </c>
       <c r="E12">
-        <v>14.1234819591572</v>
+        <v>13.49331261735738</v>
       </c>
       <c r="F12">
-        <v>32.46760147230432</v>
+        <v>24.83979791170007</v>
       </c>
       <c r="I12">
-        <v>21.90250244880735</v>
+        <v>13.41929607566632</v>
       </c>
       <c r="J12">
-        <v>9.925010559799183</v>
+        <v>6.976103338546268</v>
       </c>
       <c r="K12">
-        <v>11.39200130176248</v>
+        <v>15.11119131440768</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.59936988239853</v>
+        <v>11.3235120809742</v>
       </c>
       <c r="O12">
-        <v>24.23125774153401</v>
+        <v>16.19981397714033</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.57084773038119</v>
+        <v>16.90272810489212</v>
       </c>
       <c r="C13">
-        <v>6.248347595968697</v>
+        <v>10.14417733703992</v>
       </c>
       <c r="D13">
-        <v>9.642794490392495</v>
+        <v>9.523378780623883</v>
       </c>
       <c r="E13">
-        <v>14.11791328031144</v>
+        <v>13.46382951042403</v>
       </c>
       <c r="F13">
-        <v>32.46707100132713</v>
+        <v>24.80820486950532</v>
       </c>
       <c r="I13">
-        <v>21.9064303902375</v>
+        <v>13.42250416045837</v>
       </c>
       <c r="J13">
-        <v>9.924704985830674</v>
+        <v>6.967742219152831</v>
       </c>
       <c r="K13">
-        <v>11.3800985339567</v>
+        <v>15.07282089471698</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.60249932634908</v>
+        <v>11.33519682396147</v>
       </c>
       <c r="O13">
-        <v>24.2338424949918</v>
+        <v>16.19149503010737</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.51580260617692</v>
+        <v>16.7557376369132</v>
       </c>
       <c r="C14">
-        <v>6.211188204740031</v>
+        <v>10.05643947527353</v>
       </c>
       <c r="D14">
-        <v>9.627060852604966</v>
+        <v>9.45172303884072</v>
       </c>
       <c r="E14">
-        <v>14.0998075543064</v>
+        <v>13.36743102004407</v>
       </c>
       <c r="F14">
-        <v>32.46553031434637</v>
+        <v>24.70554414634433</v>
       </c>
       <c r="I14">
-        <v>21.91934086130624</v>
+        <v>13.43333845418068</v>
       </c>
       <c r="J14">
-        <v>9.923747334250184</v>
+        <v>6.940518861398864</v>
       </c>
       <c r="K14">
-        <v>11.34122837450082</v>
+        <v>14.94706062108979</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.61274618658626</v>
+        <v>11.37334976478599</v>
       </c>
       <c r="O14">
-        <v>24.24239676681063</v>
+        <v>16.16478821084516</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.4819792236837</v>
+        <v>16.6651157772615</v>
       </c>
       <c r="C15">
-        <v>6.188325621815856</v>
+        <v>10.00236128370752</v>
       </c>
       <c r="D15">
-        <v>9.617441844245386</v>
+        <v>9.407641279628447</v>
       </c>
       <c r="E15">
-        <v>14.08875982641279</v>
+        <v>13.30819499575703</v>
       </c>
       <c r="F15">
-        <v>32.46473209726103</v>
+        <v>24.64294740633353</v>
       </c>
       <c r="I15">
-        <v>21.92732618506333</v>
+        <v>13.44025809311543</v>
       </c>
       <c r="J15">
-        <v>9.923190651327063</v>
+        <v>6.923877959220552</v>
       </c>
       <c r="K15">
-        <v>11.31737972285775</v>
+        <v>14.86954729800472</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.61905425743197</v>
+        <v>11.39675569912822</v>
       </c>
       <c r="O15">
-        <v>24.24773239984521</v>
+        <v>16.14875293865086</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.28656952229433</v>
+        <v>16.1367840094617</v>
       </c>
       <c r="C16">
-        <v>6.055785080066247</v>
+        <v>9.687286171109296</v>
       </c>
       <c r="D16">
-        <v>9.562612120854729</v>
+        <v>9.152135471694981</v>
       </c>
       <c r="E16">
-        <v>14.02611551331223</v>
+        <v>12.96588853785197</v>
       </c>
       <c r="F16">
-        <v>32.46238946777718</v>
+        <v>24.28864610762365</v>
       </c>
       <c r="I16">
-        <v>21.97427080750683</v>
+        <v>13.48414995942335</v>
       </c>
       <c r="J16">
-        <v>9.92045976547911</v>
+        <v>6.829053517428195</v>
       </c>
       <c r="K16">
-        <v>11.18014403618522</v>
+        <v>14.41794966219631</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.65568798740458</v>
+        <v>11.53145853402814</v>
       </c>
       <c r="O16">
-        <v>24.27977744166406</v>
+        <v>16.06174860898935</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.16534047827749</v>
+        <v>15.80459001746303</v>
       </c>
       <c r="C17">
-        <v>5.973149328450765</v>
+        <v>9.489357412663292</v>
       </c>
       <c r="D17">
-        <v>9.529250730623438</v>
+        <v>8.992846477572872</v>
       </c>
       <c r="E17">
-        <v>13.9882938794545</v>
+        <v>12.75341253828891</v>
       </c>
       <c r="F17">
-        <v>32.46294510629749</v>
+        <v>24.07526962064594</v>
       </c>
       <c r="I17">
-        <v>22.00412558333334</v>
+        <v>13.51474631729711</v>
       </c>
       <c r="J17">
-        <v>9.919195137530497</v>
+        <v>6.771377148426978</v>
       </c>
       <c r="K17">
-        <v>11.09548854917281</v>
+        <v>14.13428583397152</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.67859499361964</v>
+        <v>11.61462550187798</v>
       </c>
       <c r="O17">
-        <v>24.30074531614018</v>
+        <v>16.0126580779215</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.09514056666591</v>
+        <v>15.61053769959328</v>
       </c>
       <c r="C18">
-        <v>5.925146035354611</v>
+        <v>9.373799960592889</v>
       </c>
       <c r="D18">
-        <v>9.510168477661464</v>
+        <v>8.900307963734356</v>
       </c>
       <c r="E18">
-        <v>13.9667692457728</v>
+        <v>12.63031564554106</v>
       </c>
       <c r="F18">
-        <v>32.46399750485921</v>
+        <v>23.95401646452067</v>
       </c>
       <c r="I18">
-        <v>22.02168497717158</v>
+        <v>13.53364972098857</v>
       </c>
       <c r="J18">
-        <v>9.918619020833102</v>
+        <v>6.738391545308263</v>
       </c>
       <c r="K18">
-        <v>11.04664257124748</v>
+        <v>13.96868848818634</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.69193011652229</v>
+        <v>11.66266388171255</v>
       </c>
       <c r="O18">
-        <v>24.31328612328837</v>
+        <v>15.98596564205979</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.07129338897513</v>
+        <v>15.54432127118058</v>
       </c>
       <c r="C19">
-        <v>5.908813038213169</v>
+        <v>9.334378998459808</v>
       </c>
       <c r="D19">
-        <v>9.50372632029779</v>
+        <v>8.868819648044797</v>
       </c>
       <c r="E19">
-        <v>13.95952130302039</v>
+        <v>12.58848757732544</v>
       </c>
       <c r="F19">
-        <v>32.46447972588722</v>
+        <v>23.91321695790476</v>
       </c>
       <c r="I19">
-        <v>22.02769685089961</v>
+        <v>13.54027019157999</v>
       </c>
       <c r="J19">
-        <v>9.918449968118106</v>
+        <v>6.72725613947935</v>
       </c>
       <c r="K19">
-        <v>11.03007927034585</v>
+        <v>13.91220011384979</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.69647260764174</v>
+        <v>11.67896442709514</v>
       </c>
       <c r="O19">
-        <v>24.31761472510021</v>
+        <v>15.97719007512907</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.17829495107112</v>
+        <v>15.84026106725381</v>
       </c>
       <c r="C20">
-        <v>5.981995368168603</v>
+        <v>9.510604473686318</v>
       </c>
       <c r="D20">
-        <v>9.532791221736499</v>
+        <v>9.009898618276278</v>
       </c>
       <c r="E20">
-        <v>13.99229644542121</v>
+        <v>12.77612331889203</v>
       </c>
       <c r="F20">
-        <v>32.46281012368404</v>
+        <v>24.09783153700599</v>
       </c>
       <c r="I20">
-        <v>22.00090735808561</v>
+        <v>13.51135323028464</v>
       </c>
       <c r="J20">
-        <v>9.919314111504599</v>
+        <v>6.777497550025635</v>
       </c>
       <c r="K20">
-        <v>11.10451663217206</v>
+        <v>14.16473485325407</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.67613999157157</v>
+        <v>11.60575140483129</v>
       </c>
       <c r="O20">
-        <v>24.29846349372521</v>
+        <v>16.01772342901758</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.53199304486845</v>
+        <v>16.79903433175719</v>
       </c>
       <c r="C21">
-        <v>6.222124015631667</v>
+        <v>10.08228022706168</v>
       </c>
       <c r="D21">
-        <v>9.63167841975792</v>
+        <v>9.472809843835707</v>
       </c>
       <c r="E21">
-        <v>14.10511680972767</v>
+        <v>13.39578513026153</v>
       </c>
       <c r="F21">
-        <v>32.4659525337561</v>
+        <v>24.73563858285359</v>
       </c>
       <c r="I21">
-        <v>21.91553263481165</v>
+        <v>13.43009686362199</v>
       </c>
       <c r="J21">
-        <v>9.924022389380456</v>
+        <v>6.948507928607671</v>
       </c>
       <c r="K21">
-        <v>11.35265381509544</v>
+        <v>14.98409976233769</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.60972985744825</v>
+        <v>11.36213583159751</v>
       </c>
       <c r="O21">
-        <v>24.23986418286226</v>
+        <v>16.17256508372864</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.75844612987041</v>
+        <v>17.39938434770238</v>
       </c>
       <c r="C22">
-        <v>6.374560937936648</v>
+        <v>10.44083108251717</v>
       </c>
       <c r="D22">
-        <v>9.697140319404793</v>
+        <v>9.766859477645918</v>
       </c>
       <c r="E22">
-        <v>14.18077144616177</v>
+        <v>13.79236919862823</v>
       </c>
       <c r="F22">
-        <v>32.47451987057931</v>
+        <v>25.16531815885602</v>
       </c>
       <c r="I22">
-        <v>21.86319377632717</v>
+        <v>13.38955346628203</v>
       </c>
       <c r="J22">
-        <v>9.928438995859496</v>
+        <v>7.06182008294214</v>
       </c>
       <c r="K22">
-        <v>11.51310009458761</v>
+        <v>15.49802936334578</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.56774106048747</v>
+        <v>11.20455832650761</v>
       </c>
       <c r="O22">
-        <v>24.2058567992193</v>
+        <v>16.28815589170556</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.63803783299683</v>
+        <v>17.0813544041055</v>
       </c>
       <c r="C23">
-        <v>6.29362708750129</v>
+        <v>10.25083514543748</v>
       </c>
       <c r="D23">
-        <v>9.662131341560791</v>
+        <v>9.610708812466214</v>
       </c>
       <c r="E23">
-        <v>14.14022349853714</v>
+        <v>13.58149480771075</v>
       </c>
       <c r="F23">
-        <v>32.46935206470013</v>
+        <v>24.93483007777662</v>
       </c>
       <c r="I23">
-        <v>21.89081127323377</v>
+        <v>13.40999613739824</v>
       </c>
       <c r="J23">
-        <v>9.9259595959218</v>
+        <v>7.001207695876937</v>
       </c>
       <c r="K23">
-        <v>11.42764127074017</v>
+        <v>15.22570035174997</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.59002223679715</v>
+        <v>11.28851879933527</v>
       </c>
       <c r="O23">
-        <v>24.22361409963854</v>
+        <v>16.22511527163269</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.17243979710251</v>
+        <v>15.82414374993663</v>
       </c>
       <c r="C24">
-        <v>5.977997611796996</v>
+        <v>9.501004178822054</v>
       </c>
       <c r="D24">
-        <v>9.531190260269376</v>
+        <v>9.002192335611356</v>
       </c>
       <c r="E24">
-        <v>13.99048620020822</v>
+        <v>12.76585870180454</v>
       </c>
       <c r="F24">
-        <v>32.46286886610272</v>
+        <v>24.0876268687988</v>
       </c>
       <c r="I24">
-        <v>22.00236108586139</v>
+        <v>13.51288316502682</v>
       </c>
       <c r="J24">
-        <v>9.91925985314692</v>
+        <v>6.77472997515904</v>
       </c>
       <c r="K24">
-        <v>11.1004355813427</v>
+        <v>14.15097668776403</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.6772493821337</v>
+        <v>11.60976268275766</v>
       </c>
       <c r="O24">
-        <v>24.29949359158744</v>
+        <v>16.01542862438444</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.65252959041889</v>
+        <v>14.35382769201388</v>
       </c>
       <c r="C25">
-        <v>5.619666703328252</v>
+        <v>8.626565799158444</v>
       </c>
       <c r="D25">
-        <v>9.394078979813166</v>
+        <v>8.31094122150262</v>
       </c>
       <c r="E25">
-        <v>13.83780537589684</v>
+        <v>11.85265011844823</v>
       </c>
       <c r="F25">
-        <v>32.48389137838569</v>
+        <v>23.23034510062438</v>
       </c>
       <c r="I25">
-        <v>22.13750560257462</v>
+        <v>13.67326334035569</v>
       </c>
       <c r="J25">
-        <v>9.917819324322402</v>
+        <v>6.537723703656716</v>
       </c>
       <c r="K25">
-        <v>10.74182011742925</v>
+        <v>12.89831981939213</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.77744522385475</v>
+        <v>11.96412357429503</v>
       </c>
       <c r="O25">
-        <v>24.39971006594965</v>
+        <v>15.84781511588169</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.17133318506031</v>
+        <v>13.67095856074646</v>
       </c>
       <c r="C2">
-        <v>7.925280390252082</v>
+        <v>10.49144064405409</v>
       </c>
       <c r="D2">
-        <v>7.774272153352009</v>
+        <v>3.735243307480775</v>
       </c>
       <c r="E2">
-        <v>11.15523064852123</v>
+        <v>7.487492178577937</v>
       </c>
       <c r="F2">
-        <v>22.64905579245625</v>
+        <v>34.39482138785618</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3.354805377668562</v>
       </c>
       <c r="I2">
-        <v>13.82912046537393</v>
+        <v>3.903525844156005</v>
       </c>
       <c r="J2">
-        <v>6.370193270079333</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>11.8949206598858</v>
+        <v>22.0677885680231</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.967409140732274</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.97893973100586</v>
       </c>
       <c r="N2">
-        <v>12.23267919820003</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.77093825736113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.52347594209301</v>
+      </c>
+      <c r="P2">
+        <v>15.67193750133499</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.30685367273847</v>
+        <v>12.84149147296234</v>
       </c>
       <c r="C3">
-        <v>7.413764735643587</v>
+        <v>9.88287009697593</v>
       </c>
       <c r="D3">
-        <v>7.394917599759468</v>
+        <v>3.541522046579451</v>
       </c>
       <c r="E3">
-        <v>10.66949428923473</v>
+        <v>7.143598125586842</v>
       </c>
       <c r="F3">
-        <v>22.28671298757867</v>
+        <v>33.48765550190229</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.618783598306711</v>
       </c>
       <c r="I3">
-        <v>13.95610517202986</v>
+        <v>4.109990020333555</v>
       </c>
       <c r="J3">
-        <v>6.261377714889988</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>11.16416494332437</v>
+        <v>21.7522520853812</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.820875622938548</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.27855004792134</v>
       </c>
       <c r="N3">
-        <v>12.41986492609231</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.74581486161872</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.9745915447184</v>
+      </c>
+      <c r="P3">
+        <v>15.74132600223847</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.74471233266528</v>
+        <v>12.30399188857319</v>
       </c>
       <c r="C4">
-        <v>7.081706758574533</v>
+        <v>9.498293253862707</v>
       </c>
       <c r="D4">
-        <v>7.154989742000041</v>
+        <v>3.418813379025777</v>
       </c>
       <c r="E4">
-        <v>10.36585265215893</v>
+        <v>6.924346421709815</v>
       </c>
       <c r="F4">
-        <v>22.07989050969162</v>
+        <v>32.92292922752765</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3.786534738371417</v>
       </c>
       <c r="I4">
-        <v>14.04392731488996</v>
+        <v>4.241703059571211</v>
       </c>
       <c r="J4">
-        <v>6.197014258644825</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>10.69047535985081</v>
+        <v>21.55740194895917</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.728040502657358</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.83050045382228</v>
       </c>
       <c r="N4">
-        <v>12.53748345070092</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>15.7429832348196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.626081094553</v>
+      </c>
+      <c r="P4">
+        <v>15.78429741887181</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.50772367935775</v>
+        <v>12.07116021602088</v>
       </c>
       <c r="C5">
-        <v>6.941857165510129</v>
+        <v>9.345693828210393</v>
       </c>
       <c r="D5">
-        <v>7.055585471527967</v>
+        <v>3.371457927958931</v>
       </c>
       <c r="E5">
-        <v>10.24094341654074</v>
+        <v>6.834270953657412</v>
       </c>
       <c r="F5">
-        <v>21.99954649608386</v>
+        <v>32.67737390606526</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3.856740027397867</v>
       </c>
       <c r="I5">
-        <v>14.0820967004306</v>
+        <v>4.299206276410096</v>
       </c>
       <c r="J5">
-        <v>6.171419313769404</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>10.4911722233054</v>
+        <v>21.46734594311906</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.68908790205309</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.64137420688893</v>
       </c>
       <c r="N5">
-        <v>12.58610718438888</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>15.74488814820957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.48083690443293</v>
+      </c>
+      <c r="P5">
+        <v>15.79854402893646</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.46789328666111</v>
+        <v>12.02375613248855</v>
       </c>
       <c r="C6">
-        <v>6.918361222458085</v>
+        <v>9.328415313307827</v>
       </c>
       <c r="D6">
-        <v>7.038985095150293</v>
+        <v>3.367896517586059</v>
       </c>
       <c r="E6">
-        <v>10.22013733513123</v>
+        <v>6.820742093888196</v>
       </c>
       <c r="F6">
-        <v>21.98644302798642</v>
+        <v>32.61971408970751</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.868967658305231</v>
       </c>
       <c r="I6">
-        <v>14.08857578708312</v>
+        <v>4.312100303260166</v>
       </c>
       <c r="J6">
-        <v>6.167208054476162</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>10.45770005923254</v>
+        <v>21.4396367166204</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.682073728610576</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.60703743352577</v>
       </c>
       <c r="N6">
-        <v>12.59422349798011</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>15.74538600205349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.45596545772222</v>
+      </c>
+      <c r="P6">
+        <v>15.7968165069533</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.74154828995205</v>
+        <v>12.27863445054662</v>
       </c>
       <c r="C7">
-        <v>7.079839064194313</v>
+        <v>9.51819912062207</v>
       </c>
       <c r="D7">
-        <v>7.153655562257463</v>
+        <v>3.429845505530783</v>
       </c>
       <c r="E7">
-        <v>10.36417257066533</v>
+        <v>6.927298349409377</v>
       </c>
       <c r="F7">
-        <v>22.07879102691819</v>
+        <v>32.87420218261733</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3.788775685100929</v>
       </c>
       <c r="I7">
-        <v>14.04443256323135</v>
+        <v>4.251152887622013</v>
       </c>
       <c r="J7">
-        <v>6.196666488157407</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>10.68781284823513</v>
+        <v>21.52157037916214</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.726160318523034</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.82079047831288</v>
       </c>
       <c r="N7">
-        <v>12.53813637732799</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>15.74299668443092</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.622534778963</v>
+      </c>
+      <c r="P7">
+        <v>15.77334716188264</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.87974822691199</v>
+        <v>13.36349887185893</v>
       </c>
       <c r="C8">
-        <v>7.752634830160479</v>
+        <v>10.31095254233659</v>
       </c>
       <c r="D8">
-        <v>7.644995337711561</v>
+        <v>3.683711019110711</v>
       </c>
       <c r="E8">
-        <v>10.98897260930199</v>
+        <v>7.375837162113881</v>
       </c>
       <c r="F8">
-        <v>22.52087450484427</v>
+        <v>34.02571734208826</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3.446317114923123</v>
       </c>
       <c r="I8">
-        <v>13.87080022999593</v>
+        <v>3.984791153649726</v>
       </c>
       <c r="J8">
-        <v>6.332176210873993</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>11.64815163934149</v>
+        <v>21.91436607228972</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.915765294932902</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.73234249386193</v>
       </c>
       <c r="N8">
-        <v>12.29667441484794</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.75959745738082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.33467117911195</v>
+      </c>
+      <c r="P8">
+        <v>15.68127900518482</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.86451765565087</v>
+        <v>15.29985648529152</v>
       </c>
       <c r="C9">
-        <v>8.929982572899346</v>
+        <v>11.73860475374158</v>
       </c>
       <c r="D9">
-        <v>8.548273734585244</v>
+        <v>4.131423683404155</v>
       </c>
       <c r="E9">
-        <v>12.16444015540468</v>
+        <v>8.182764055294518</v>
       </c>
       <c r="F9">
-        <v>23.51144509520306</v>
+        <v>36.2902324422419</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.816319702895628</v>
       </c>
       <c r="I9">
-        <v>13.61306654547059</v>
+        <v>3.486516524381858</v>
       </c>
       <c r="J9">
-        <v>6.616525005568496</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>13.33283440466807</v>
+        <v>22.73411212908005</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.266773355714006</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.38287292759411</v>
       </c>
       <c r="N9">
-        <v>11.84362706221474</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.89678259223704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.63709856338006</v>
+      </c>
+      <c r="P9">
+        <v>15.52317739452974</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.17428643255433</v>
+        <v>16.54189518688392</v>
       </c>
       <c r="C10">
-        <v>9.709639582749272</v>
+        <v>12.66646820267662</v>
       </c>
       <c r="D10">
-        <v>9.170185674024752</v>
+        <v>4.392045187811587</v>
       </c>
       <c r="E10">
-        <v>12.99001149169217</v>
+        <v>8.572171836626719</v>
       </c>
       <c r="F10">
-        <v>24.31319273709812</v>
+        <v>37.63009326695418</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.41232124312874</v>
       </c>
       <c r="I10">
-        <v>13.48083869284457</v>
+        <v>3.155830300093006</v>
       </c>
       <c r="J10">
-        <v>6.835659850770059</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>14.44998737523692</v>
+        <v>23.19006748031699</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.435061782063843</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.45359492109854</v>
       </c>
       <c r="N10">
-        <v>11.52199554694192</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.0675615528597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.41045055015212</v>
+      </c>
+      <c r="P10">
+        <v>15.357463265683</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.73844274671065</v>
+        <v>16.78563155841093</v>
       </c>
       <c r="C11">
-        <v>10.04611803032</v>
+        <v>12.50831536108954</v>
       </c>
       <c r="D11">
-        <v>9.44330453614632</v>
+        <v>4.071101146335516</v>
       </c>
       <c r="E11">
-        <v>13.3561144591578</v>
+        <v>7.41198541225357</v>
       </c>
       <c r="F11">
-        <v>24.69355674759975</v>
+        <v>36.02285564918004</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.218774836159508</v>
       </c>
       <c r="I11">
-        <v>13.43464498335505</v>
+        <v>3.09029875779694</v>
       </c>
       <c r="J11">
-        <v>6.937334572328009</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>14.93226627903852</v>
+        <v>22.30242375058546</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.934348526536896</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.54591828431948</v>
       </c>
       <c r="N11">
-        <v>11.37782353557667</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.16170264985081</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.73307267914996</v>
+      </c>
+      <c r="P11">
+        <v>14.88449365820805</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.94756688008757</v>
+        <v>16.76231020490848</v>
       </c>
       <c r="C12">
-        <v>10.17094679196093</v>
+        <v>12.16288002774416</v>
       </c>
       <c r="D12">
-        <v>9.54527456205558</v>
+        <v>3.734205957424253</v>
       </c>
       <c r="E12">
-        <v>13.49331261735738</v>
+        <v>6.469999904277931</v>
       </c>
       <c r="F12">
-        <v>24.83979791170007</v>
+        <v>34.42880713411016</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.480999798576833</v>
       </c>
       <c r="I12">
-        <v>13.41929607566632</v>
+        <v>3.083364088908601</v>
       </c>
       <c r="J12">
-        <v>6.976103338546268</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>15.11119131440768</v>
+        <v>21.50407458596825</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.58783682615139</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.4077831581001</v>
       </c>
       <c r="N12">
-        <v>11.3235120809742</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>16.19981397714033</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.99375899391837</v>
+      </c>
+      <c r="P12">
+        <v>14.55895068138071</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.90272810489212</v>
+        <v>16.50483130218919</v>
       </c>
       <c r="C13">
-        <v>10.14417733703992</v>
+        <v>11.64000165403073</v>
       </c>
       <c r="D13">
-        <v>9.523378780623883</v>
+        <v>3.371601178746433</v>
       </c>
       <c r="E13">
-        <v>13.46382951042403</v>
+        <v>5.686856734409165</v>
       </c>
       <c r="F13">
-        <v>24.80820486950532</v>
+        <v>32.66220371965961</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.850537649763996</v>
       </c>
       <c r="I13">
-        <v>13.42250416045837</v>
+        <v>3.135711924593323</v>
       </c>
       <c r="J13">
-        <v>6.967742219152831</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>15.07282089471698</v>
+        <v>20.67061334520993</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.352749934014416</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.07049998082496</v>
       </c>
       <c r="N13">
-        <v>11.33519682396147</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16.19149503010737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.14375268615811</v>
+      </c>
+      <c r="P13">
+        <v>14.31245859267652</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.7557376369132</v>
+        <v>16.21000142551095</v>
       </c>
       <c r="C14">
-        <v>10.05643947527353</v>
+        <v>11.19048347035165</v>
       </c>
       <c r="D14">
-        <v>9.45172303884072</v>
+        <v>3.107368654382368</v>
       </c>
       <c r="E14">
-        <v>13.36743102004407</v>
+        <v>5.278883575976553</v>
       </c>
       <c r="F14">
-        <v>24.70554414634433</v>
+        <v>31.32992636099413</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.839272341569839</v>
       </c>
       <c r="I14">
-        <v>13.43333845418068</v>
+        <v>3.201783867755085</v>
       </c>
       <c r="J14">
-        <v>6.940518861398864</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>14.94706062108979</v>
+        <v>20.06405384198406</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.264130603838833</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.73804405163003</v>
       </c>
       <c r="N14">
-        <v>11.37334976478599</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.16478821084516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.49116493537377</v>
+      </c>
+      <c r="P14">
+        <v>14.1783545506268</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.6651157772615</v>
+        <v>16.08026763793953</v>
       </c>
       <c r="C15">
-        <v>10.00236128370752</v>
+        <v>11.04789175272466</v>
       </c>
       <c r="D15">
-        <v>9.407641279628447</v>
+        <v>3.039618359166187</v>
       </c>
       <c r="E15">
-        <v>13.30819499575703</v>
+        <v>5.197806781616609</v>
       </c>
       <c r="F15">
-        <v>24.64294740633353</v>
+        <v>30.95549445944692</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>7.073562618734281</v>
       </c>
       <c r="I15">
-        <v>13.44025809311543</v>
+        <v>3.235301481079289</v>
       </c>
       <c r="J15">
-        <v>6.923877959220552</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>14.86954729800472</v>
+        <v>19.89843320094461</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.250158030990552</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.61153408263324</v>
       </c>
       <c r="N15">
-        <v>11.39675569912822</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.14875293865086</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.30774397701178</v>
+      </c>
+      <c r="P15">
+        <v>14.15725458448389</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.1367840094617</v>
+        <v>15.5921559703001</v>
       </c>
       <c r="C16">
-        <v>9.687286171109296</v>
+        <v>10.73348687901729</v>
       </c>
       <c r="D16">
-        <v>9.152135471694981</v>
+        <v>2.985786980709554</v>
       </c>
       <c r="E16">
-        <v>12.96588853785197</v>
+        <v>5.142514153511739</v>
       </c>
       <c r="F16">
-        <v>24.28864610762365</v>
+        <v>30.66063366150718</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.913336325943439</v>
       </c>
       <c r="I16">
-        <v>13.48414995942335</v>
+        <v>3.37024773342038</v>
       </c>
       <c r="J16">
-        <v>6.829053517428195</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>14.41794966219631</v>
+        <v>19.84020135675974</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.215325075166437</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.20961804349692</v>
       </c>
       <c r="N16">
-        <v>11.53145853402814</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.06174860898935</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.11092983987032</v>
+      </c>
+      <c r="P16">
+        <v>14.27350619203675</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.80459001746303</v>
+        <v>15.37411419028395</v>
       </c>
       <c r="C17">
-        <v>9.489357412663292</v>
+        <v>10.74148022991884</v>
       </c>
       <c r="D17">
-        <v>8.992846477572872</v>
+        <v>3.089654053145134</v>
       </c>
       <c r="E17">
-        <v>12.75341253828891</v>
+        <v>5.290113479242354</v>
       </c>
       <c r="F17">
-        <v>24.07526962064594</v>
+        <v>31.15510553423183</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6.243039800268595</v>
       </c>
       <c r="I17">
-        <v>13.51474631729711</v>
+        <v>3.439738733805914</v>
       </c>
       <c r="J17">
-        <v>6.771377148426978</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>14.13428583397152</v>
+        <v>20.11878385717185</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.222056169959111</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.08136432425653</v>
       </c>
       <c r="N17">
-        <v>11.61462550187798</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>16.0126580779215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.31715621272482</v>
+      </c>
+      <c r="P17">
+        <v>14.43085294133316</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.61053769959328</v>
+        <v>15.3855644049913</v>
       </c>
       <c r="C18">
-        <v>9.373799960592889</v>
+        <v>11.01059057586038</v>
       </c>
       <c r="D18">
-        <v>8.900307963734356</v>
+        <v>3.340723966330744</v>
       </c>
       <c r="E18">
-        <v>12.63031564554106</v>
+        <v>5.787906180170001</v>
       </c>
       <c r="F18">
-        <v>23.95401646452067</v>
+        <v>32.41998363767802</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>5.100718235550016</v>
       </c>
       <c r="I18">
-        <v>13.53364972098857</v>
+        <v>3.448685138654912</v>
       </c>
       <c r="J18">
-        <v>6.738391545308263</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>13.96868848818634</v>
+        <v>20.74828434839258</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.342670128427099</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.18241564645286</v>
       </c>
       <c r="N18">
-        <v>11.66266388171255</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>15.98596564205979</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.89745307975412</v>
+      </c>
+      <c r="P18">
+        <v>14.66201348803856</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.54432127118058</v>
+        <v>15.54619197324931</v>
       </c>
       <c r="C19">
-        <v>9.334378998459808</v>
+        <v>11.49485523554224</v>
       </c>
       <c r="D19">
-        <v>8.868819648044797</v>
+        <v>3.71206256067098</v>
       </c>
       <c r="E19">
-        <v>12.58848757732544</v>
+        <v>6.69879111321261</v>
       </c>
       <c r="F19">
-        <v>23.91321695790476</v>
+        <v>34.13817016721149</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.8000205674513</v>
       </c>
       <c r="I19">
-        <v>13.54027019157999</v>
+        <v>3.42371715827611</v>
       </c>
       <c r="J19">
-        <v>6.72725613947935</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>13.91220011384979</v>
+        <v>21.56571914660081</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.647473355362097</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.44545300270776</v>
       </c>
       <c r="N19">
-        <v>11.67896442709514</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15.97719007512907</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.72865234731753</v>
+      </c>
+      <c r="P19">
+        <v>14.94184396256437</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.84026106725381</v>
+        <v>16.16911709595911</v>
       </c>
       <c r="C20">
-        <v>9.510604473686318</v>
+        <v>12.47680617763028</v>
       </c>
       <c r="D20">
-        <v>9.009898618276278</v>
+        <v>4.351370481760368</v>
       </c>
       <c r="E20">
-        <v>12.77612331889203</v>
+        <v>8.474772240983054</v>
       </c>
       <c r="F20">
-        <v>24.09783153700599</v>
+        <v>37.14587537641329</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.520345574530434</v>
       </c>
       <c r="I20">
-        <v>13.51135323028464</v>
+        <v>3.271388955063649</v>
       </c>
       <c r="J20">
-        <v>6.777497550025635</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>14.16473485325407</v>
+        <v>22.96583083456937</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.384540648838513</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.15872443089628</v>
       </c>
       <c r="N20">
-        <v>11.60575140483129</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16.01772342901758</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.20165684939068</v>
+      </c>
+      <c r="P20">
+        <v>15.36602123398961</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.79903433175719</v>
+        <v>17.13997144810506</v>
       </c>
       <c r="C21">
-        <v>10.08228022706168</v>
+        <v>13.26766547714833</v>
       </c>
       <c r="D21">
-        <v>9.472809843835707</v>
+        <v>4.619388783980138</v>
       </c>
       <c r="E21">
-        <v>13.39578513026153</v>
+        <v>9.012490827094579</v>
       </c>
       <c r="F21">
-        <v>24.73563858285359</v>
+        <v>38.57058048026148</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2.166653328465718</v>
       </c>
       <c r="I21">
-        <v>13.43009686362199</v>
+        <v>3.007649826331807</v>
       </c>
       <c r="J21">
-        <v>6.948507928607671</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>14.98409976233769</v>
+        <v>23.52362328544604</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.625790769557106</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.01933899938697</v>
       </c>
       <c r="N21">
-        <v>11.36213583159751</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.17256508372864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>14.95764418982704</v>
+      </c>
+      <c r="P21">
+        <v>15.31817811183792</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.39938434770238</v>
+        <v>17.77869480192377</v>
       </c>
       <c r="C22">
-        <v>10.44083108251717</v>
+        <v>13.74838861506779</v>
       </c>
       <c r="D22">
-        <v>9.766859477645918</v>
+        <v>4.752250118883436</v>
       </c>
       <c r="E22">
-        <v>13.79236919862823</v>
+        <v>9.267492815742226</v>
       </c>
       <c r="F22">
-        <v>25.16531815885602</v>
+        <v>39.41001049897483</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1.954085432607417</v>
       </c>
       <c r="I22">
-        <v>13.38955346628203</v>
+        <v>2.830244875427953</v>
       </c>
       <c r="J22">
-        <v>7.06182008294214</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>15.49802936334578</v>
+        <v>23.86374739534017</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.74389723893849</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.60519948881794</v>
       </c>
       <c r="N22">
-        <v>11.20455832650761</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.28815589170556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.37966600421839</v>
+      </c>
+      <c r="P22">
+        <v>15.27743249739244</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.0813544041055</v>
+        <v>17.45384948673616</v>
       </c>
       <c r="C23">
-        <v>10.25083514543748</v>
+        <v>13.47453417690167</v>
       </c>
       <c r="D23">
-        <v>9.610708812466214</v>
+        <v>4.671249029813879</v>
       </c>
       <c r="E23">
-        <v>13.58149480771075</v>
+        <v>9.12823285781886</v>
       </c>
       <c r="F23">
-        <v>24.93483007777662</v>
+        <v>39.00855506672949</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.065866376983499</v>
       </c>
       <c r="I23">
-        <v>13.40999613739824</v>
+        <v>2.912511542550638</v>
       </c>
       <c r="J23">
-        <v>7.001207695876937</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>15.22570035174997</v>
+        <v>23.7192516380047</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.682442089964064</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.29548619708411</v>
       </c>
       <c r="N23">
-        <v>11.28851879933527</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>16.22511527163269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.15717517624448</v>
+      </c>
+      <c r="P23">
+        <v>15.31153562020549</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.82414374993663</v>
+        <v>16.20927307324076</v>
       </c>
       <c r="C24">
-        <v>9.501004178822054</v>
+        <v>12.48837003079697</v>
       </c>
       <c r="D24">
-        <v>9.002192335611356</v>
+        <v>4.372501487468789</v>
       </c>
       <c r="E24">
-        <v>12.76585870180454</v>
+        <v>8.591193685921253</v>
       </c>
       <c r="F24">
-        <v>24.0876268687988</v>
+        <v>37.39335749688965</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.499147570025385</v>
       </c>
       <c r="I24">
-        <v>13.51288316502682</v>
+        <v>3.251411456804877</v>
       </c>
       <c r="J24">
-        <v>6.77472997515904</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>14.15097668776403</v>
+        <v>23.11106096424485</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.442283396572936</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.18894041928213</v>
       </c>
       <c r="N24">
-        <v>11.60976268275766</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>16.01542862438444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.2860800991651</v>
+      </c>
+      <c r="P24">
+        <v>15.42239667688441</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.35382769201388</v>
+        <v>14.76665191888693</v>
       </c>
       <c r="C25">
-        <v>8.626565799158444</v>
+        <v>11.39622674330755</v>
       </c>
       <c r="D25">
-        <v>8.31094122150262</v>
+        <v>4.031910659461186</v>
       </c>
       <c r="E25">
-        <v>11.85265011844823</v>
+        <v>7.978304853934349</v>
       </c>
       <c r="F25">
-        <v>23.23034510062438</v>
+        <v>35.61110998476328</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.984390940399992</v>
       </c>
       <c r="I25">
-        <v>13.67326334035569</v>
+        <v>3.633279804631362</v>
       </c>
       <c r="J25">
-        <v>6.537723703656716</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>12.89831981939213</v>
+        <v>22.45432362446766</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.172115804175806</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.94174805786455</v>
       </c>
       <c r="N25">
-        <v>11.96412357429503</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.84781511588169</v>
+        <v>13.29321502877367</v>
+      </c>
+      <c r="P25">
+        <v>15.54620243503633</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.67095856074646</v>
+        <v>12.77910441761552</v>
       </c>
       <c r="C2">
-        <v>10.49144064405409</v>
+        <v>11.40199296127789</v>
       </c>
       <c r="D2">
-        <v>3.735243307480775</v>
+        <v>4.283635392489042</v>
       </c>
       <c r="E2">
-        <v>7.487492178577937</v>
+        <v>7.836827885156319</v>
       </c>
       <c r="F2">
-        <v>34.39482138785618</v>
+        <v>32.31378323569348</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.354805377668562</v>
+        <v>3.212211410529744</v>
       </c>
       <c r="I2">
-        <v>3.903525844156005</v>
+        <v>3.649603855477082</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>22.0677885680231</v>
+        <v>20.21201587017634</v>
       </c>
       <c r="L2">
-        <v>5.967409140732274</v>
+        <v>15.97677561401449</v>
       </c>
       <c r="M2">
-        <v>12.97893973100586</v>
+        <v>14.0292276265877</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.005731346728271</v>
       </c>
       <c r="O2">
-        <v>12.52347594209301</v>
+        <v>12.67003437742507</v>
       </c>
       <c r="P2">
-        <v>15.67193750133499</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.4785244374785</v>
+      </c>
+      <c r="R2">
+        <v>15.00101930630472</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.84149147296234</v>
+        <v>12.01472519715785</v>
       </c>
       <c r="C3">
-        <v>9.88287009697593</v>
+        <v>10.73306297254414</v>
       </c>
       <c r="D3">
-        <v>3.541522046579451</v>
+        <v>4.052686503069001</v>
       </c>
       <c r="E3">
-        <v>7.143598125586842</v>
+        <v>7.488389163251287</v>
       </c>
       <c r="F3">
-        <v>33.48765550190229</v>
+        <v>31.58961157117841</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.618783598306711</v>
+        <v>3.460949782625161</v>
       </c>
       <c r="I3">
-        <v>4.109990020333555</v>
+        <v>3.830826127896613</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>21.7522520853812</v>
+        <v>20.03516677929785</v>
       </c>
       <c r="L3">
-        <v>5.820875622938548</v>
+        <v>15.95329819230868</v>
       </c>
       <c r="M3">
-        <v>12.27855004792134</v>
+        <v>13.80582758693116</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.870710481257508</v>
       </c>
       <c r="O3">
-        <v>11.9745915447184</v>
+        <v>11.98742226924894</v>
       </c>
       <c r="P3">
-        <v>15.74132600223847</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.93558693726096</v>
+      </c>
+      <c r="R3">
+        <v>15.11315015498417</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.30399188857319</v>
+        <v>11.51776324089819</v>
       </c>
       <c r="C4">
-        <v>9.498293253862707</v>
+        <v>10.31079896499632</v>
       </c>
       <c r="D4">
-        <v>3.418813379025777</v>
+        <v>3.906349380304019</v>
       </c>
       <c r="E4">
-        <v>6.924346421709815</v>
+        <v>7.266569700420063</v>
       </c>
       <c r="F4">
-        <v>32.92292922752765</v>
+        <v>31.13954151464017</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.786534738371417</v>
+        <v>3.619141534460403</v>
       </c>
       <c r="I4">
-        <v>4.241703059571211</v>
+        <v>3.94679392557535</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>21.55740194895917</v>
+        <v>19.92577391323569</v>
       </c>
       <c r="L4">
-        <v>5.728040502657358</v>
+        <v>15.93365854832072</v>
       </c>
       <c r="M4">
-        <v>11.83050045382228</v>
+        <v>13.68387790101698</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.785206527614568</v>
       </c>
       <c r="O4">
-        <v>11.626081094553</v>
+        <v>11.54994940494058</v>
       </c>
       <c r="P4">
-        <v>15.78429741887181</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.59071520912295</v>
+      </c>
+      <c r="R4">
+        <v>15.18235848589396</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.07116021602088</v>
+        <v>11.30187782734001</v>
       </c>
       <c r="C5">
-        <v>9.345693828210393</v>
+        <v>10.14228036356446</v>
       </c>
       <c r="D5">
-        <v>3.371457927958931</v>
+        <v>3.848957457463344</v>
       </c>
       <c r="E5">
-        <v>6.834270953657412</v>
+        <v>7.175430780540593</v>
       </c>
       <c r="F5">
-        <v>32.67737390606526</v>
+        <v>30.94221398068384</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.856740027397867</v>
+        <v>3.685367556968714</v>
       </c>
       <c r="I5">
-        <v>4.299206276410096</v>
+        <v>3.998210652514345</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>21.46734594311906</v>
+        <v>19.87163031491059</v>
       </c>
       <c r="L5">
-        <v>5.68908790205309</v>
+        <v>15.91616817804121</v>
       </c>
       <c r="M5">
-        <v>11.64137420688893</v>
+        <v>13.63211976652174</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.74933787083398</v>
       </c>
       <c r="O5">
-        <v>11.48083690443293</v>
+        <v>11.36514673068347</v>
       </c>
       <c r="P5">
-        <v>15.79854402893646</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.44697986239357</v>
+      </c>
+      <c r="R5">
+        <v>15.20790735043836</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.02375613248855</v>
+        <v>11.25769265488659</v>
       </c>
       <c r="C6">
-        <v>9.328415313307827</v>
+        <v>10.12179750808744</v>
       </c>
       <c r="D6">
-        <v>3.367896517586059</v>
+        <v>3.843431163152723</v>
       </c>
       <c r="E6">
-        <v>6.820742093888196</v>
+        <v>7.161623511435994</v>
       </c>
       <c r="F6">
-        <v>32.61971408970751</v>
+        <v>30.89383414199637</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.868967658305231</v>
+        <v>3.696894544454795</v>
       </c>
       <c r="I6">
-        <v>4.312100303260166</v>
+        <v>4.010613687073411</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>21.4396367166204</v>
+        <v>19.85117944397788</v>
       </c>
       <c r="L6">
-        <v>5.682073728610576</v>
+        <v>15.90321793885515</v>
       </c>
       <c r="M6">
-        <v>11.60703743352577</v>
+        <v>13.61640579669793</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.742877833294851</v>
       </c>
       <c r="O6">
-        <v>11.45596545772222</v>
+        <v>11.3316615300941</v>
       </c>
       <c r="P6">
-        <v>15.7968165069533</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.4223944956982</v>
+      </c>
+      <c r="R6">
+        <v>15.20879893880396</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.27863445054662</v>
+        <v>11.49372652005404</v>
       </c>
       <c r="C7">
-        <v>9.51819912062207</v>
+        <v>10.32902342054634</v>
       </c>
       <c r="D7">
-        <v>3.429845505530783</v>
+        <v>3.916487986821607</v>
       </c>
       <c r="E7">
-        <v>6.927298349409377</v>
+        <v>7.269227645470449</v>
       </c>
       <c r="F7">
-        <v>32.87420218261733</v>
+        <v>31.09484287933589</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.788775685100929</v>
+        <v>3.621228362598003</v>
       </c>
       <c r="I7">
-        <v>4.251152887622013</v>
+        <v>3.957534504498344</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>21.52157037916214</v>
+        <v>19.8939764005361</v>
       </c>
       <c r="L7">
-        <v>5.726160318523034</v>
+        <v>15.90675852772686</v>
       </c>
       <c r="M7">
-        <v>11.82079047831288</v>
+        <v>13.66275129718389</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.783471475446246</v>
       </c>
       <c r="O7">
-        <v>11.622534778963</v>
+        <v>11.54067867617458</v>
       </c>
       <c r="P7">
-        <v>15.77334716188264</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.5872860656446</v>
+      </c>
+      <c r="R7">
+        <v>15.17361945978452</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.36349887185893</v>
+        <v>12.49536826443273</v>
       </c>
       <c r="C8">
-        <v>10.31095254233659</v>
+        <v>11.19911609705963</v>
       </c>
       <c r="D8">
-        <v>3.683711019110711</v>
+        <v>4.218548005442132</v>
       </c>
       <c r="E8">
-        <v>7.375837162113881</v>
+        <v>7.723245122821175</v>
       </c>
       <c r="F8">
-        <v>34.02571734208826</v>
+        <v>32.01158832434828</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.446317114923123</v>
+        <v>3.298371155451856</v>
       </c>
       <c r="I8">
-        <v>3.984791153649726</v>
+        <v>3.723976948191455</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>21.91436607228972</v>
+        <v>20.1110288533081</v>
       </c>
       <c r="L8">
-        <v>5.915765294932902</v>
+        <v>15.93674820541893</v>
       </c>
       <c r="M8">
-        <v>12.73234249386193</v>
+        <v>13.92104634772297</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.958138144316539</v>
       </c>
       <c r="O8">
-        <v>12.33467117911195</v>
+        <v>12.43011815638169</v>
       </c>
       <c r="P8">
-        <v>15.68127900518482</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.29189766250994</v>
+      </c>
+      <c r="R8">
+        <v>15.02795958657365</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.29985648529152</v>
+        <v>14.30000701734595</v>
       </c>
       <c r="C9">
-        <v>11.73860475374158</v>
+        <v>12.77382578259833</v>
       </c>
       <c r="D9">
-        <v>4.131423683404155</v>
+        <v>4.754989637299902</v>
       </c>
       <c r="E9">
-        <v>8.182764055294518</v>
+        <v>8.542519845980037</v>
       </c>
       <c r="F9">
-        <v>36.2902324422419</v>
+        <v>33.83168628735013</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.816319702895628</v>
+        <v>2.705546254171488</v>
       </c>
       <c r="I9">
-        <v>3.486516524381858</v>
+        <v>3.286049317000825</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>22.73411212908005</v>
+        <v>20.58407655529941</v>
       </c>
       <c r="L9">
-        <v>6.266773355714006</v>
+        <v>15.99814944714394</v>
       </c>
       <c r="M9">
-        <v>14.38287292759411</v>
+        <v>14.58070531223632</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.281763806239067</v>
       </c>
       <c r="O9">
-        <v>13.63709856338006</v>
+        <v>14.03449982932046</v>
       </c>
       <c r="P9">
-        <v>15.52317739452974</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.57927860922024</v>
+      </c>
+      <c r="R9">
+        <v>14.76045678004475</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.54189518688392</v>
+        <v>15.50861771639312</v>
       </c>
       <c r="C10">
-        <v>12.66646820267662</v>
+        <v>13.79375490623317</v>
       </c>
       <c r="D10">
-        <v>4.392045187811587</v>
+        <v>5.069730488217516</v>
       </c>
       <c r="E10">
-        <v>8.572171836626719</v>
+        <v>8.938285495293171</v>
       </c>
       <c r="F10">
-        <v>37.63009326695418</v>
+        <v>34.88969756355676</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.41232124312874</v>
+        <v>2.327664693323734</v>
       </c>
       <c r="I10">
-        <v>3.155830300093006</v>
+        <v>2.998810545910841</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>23.19006748031699</v>
+        <v>20.81531049912294</v>
       </c>
       <c r="L10">
-        <v>6.435061782063843</v>
+        <v>15.93455459939137</v>
       </c>
       <c r="M10">
-        <v>15.45359492109854</v>
+        <v>15.03960786431739</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.432991315809663</v>
       </c>
       <c r="O10">
-        <v>14.41045055015212</v>
+        <v>15.07391676689597</v>
       </c>
       <c r="P10">
-        <v>15.357463265683</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.34219838254286</v>
+      </c>
+      <c r="R10">
+        <v>14.52821935811555</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.78563155841093</v>
+        <v>15.81588483336175</v>
       </c>
       <c r="C11">
-        <v>12.50831536108954</v>
+        <v>13.59391786974168</v>
       </c>
       <c r="D11">
-        <v>4.071101146335516</v>
+        <v>4.721244677471992</v>
       </c>
       <c r="E11">
-        <v>7.41198541225357</v>
+        <v>7.753393802966728</v>
       </c>
       <c r="F11">
-        <v>36.02285564918004</v>
+        <v>33.38442131026409</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.218774836159508</v>
+        <v>3.159214863443575</v>
       </c>
       <c r="I11">
-        <v>3.09029875779694</v>
+        <v>2.946540084307516</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>22.30242375058546</v>
+        <v>20.03241500366312</v>
       </c>
       <c r="L11">
-        <v>5.934348526536896</v>
+        <v>15.2455035351858</v>
       </c>
       <c r="M11">
-        <v>15.54591828431948</v>
+        <v>14.56754249205525</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.940286041675503</v>
       </c>
       <c r="O11">
-        <v>13.73307267914996</v>
+        <v>15.23262223690361</v>
       </c>
       <c r="P11">
-        <v>14.88449365820805</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.66639436961488</v>
+      </c>
+      <c r="R11">
+        <v>14.14490433143277</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.76231020490848</v>
+        <v>15.85446523506762</v>
       </c>
       <c r="C12">
-        <v>12.16288002774416</v>
+        <v>13.18060595421344</v>
       </c>
       <c r="D12">
-        <v>3.734205957424253</v>
+        <v>4.348751190398574</v>
       </c>
       <c r="E12">
-        <v>6.469999904277931</v>
+        <v>6.781417119742993</v>
       </c>
       <c r="F12">
-        <v>34.42880713411016</v>
+        <v>31.9327669691737</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.480999798576833</v>
+        <v>4.436966249234726</v>
       </c>
       <c r="I12">
-        <v>3.083364088908601</v>
+        <v>2.93930909784611</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>21.50407458596825</v>
+        <v>19.36660806974924</v>
       </c>
       <c r="L12">
-        <v>5.58783682615139</v>
+        <v>14.72057815916259</v>
       </c>
       <c r="M12">
-        <v>15.4077831581001</v>
+        <v>14.09457213380988</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.604504540011344</v>
       </c>
       <c r="O12">
-        <v>12.99375899391837</v>
+        <v>15.13478063163918</v>
       </c>
       <c r="P12">
-        <v>14.55895068138071</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.93049883982048</v>
+      </c>
+      <c r="R12">
+        <v>13.90454412546909</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.50483130218919</v>
+        <v>15.6658418106413</v>
       </c>
       <c r="C13">
-        <v>11.64000165403073</v>
+        <v>12.58758788165603</v>
       </c>
       <c r="D13">
-        <v>3.371601178746433</v>
+        <v>3.940686341557927</v>
       </c>
       <c r="E13">
-        <v>5.686856734409165</v>
+        <v>5.95934263037279</v>
       </c>
       <c r="F13">
-        <v>32.66220371965961</v>
+        <v>30.35626551140392</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.850537649763996</v>
+        <v>5.813181017776506</v>
       </c>
       <c r="I13">
-        <v>3.135711924593323</v>
+        <v>2.983481227263728</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>20.67061334520993</v>
+        <v>18.70196857136479</v>
       </c>
       <c r="L13">
-        <v>5.352749934014416</v>
+        <v>14.24592274604225</v>
       </c>
       <c r="M13">
-        <v>15.07049998082496</v>
+        <v>13.55793795150144</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.382591957444752</v>
       </c>
       <c r="O13">
-        <v>12.14375268615811</v>
+        <v>14.81865152379236</v>
       </c>
       <c r="P13">
-        <v>14.31245859267652</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.08561546282739</v>
+      </c>
+      <c r="R13">
+        <v>13.74622765869881</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.21000142551095</v>
+        <v>15.42373013147101</v>
       </c>
       <c r="C14">
-        <v>11.19048347035165</v>
+        <v>12.08708384221566</v>
       </c>
       <c r="D14">
-        <v>3.107368654382368</v>
+        <v>3.639401013005375</v>
       </c>
       <c r="E14">
-        <v>5.278883575976553</v>
+        <v>5.517212011611215</v>
       </c>
       <c r="F14">
-        <v>31.32992636099413</v>
+        <v>29.18110563419817</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.839272341569839</v>
+        <v>6.804038942446838</v>
       </c>
       <c r="I14">
-        <v>3.201783867755085</v>
+        <v>3.040887747982879</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>20.06405384198406</v>
+        <v>18.23117439813464</v>
       </c>
       <c r="L14">
-        <v>5.264130603838833</v>
+        <v>13.928160045705</v>
       </c>
       <c r="M14">
-        <v>14.73804405163003</v>
+        <v>13.15139593465463</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.303686843104931</v>
       </c>
       <c r="O14">
-        <v>11.49116493537377</v>
+        <v>14.49256719916036</v>
       </c>
       <c r="P14">
-        <v>14.1783545506268</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.4373592270408</v>
+      </c>
+      <c r="R14">
+        <v>13.67394274103704</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.08026763793953</v>
+        <v>15.30869049298414</v>
       </c>
       <c r="C15">
-        <v>11.04789175272466</v>
+        <v>11.9319842283082</v>
       </c>
       <c r="D15">
-        <v>3.039618359166187</v>
+        <v>3.560687154580987</v>
       </c>
       <c r="E15">
-        <v>5.197806781616609</v>
+        <v>5.427676907360066</v>
       </c>
       <c r="F15">
-        <v>30.95549445944692</v>
+        <v>28.85628617511313</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.073562618734281</v>
+        <v>7.038113730310602</v>
       </c>
       <c r="I15">
-        <v>3.235301481079289</v>
+        <v>3.071325232615258</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>19.89843320094461</v>
+        <v>18.10731517351616</v>
       </c>
       <c r="L15">
-        <v>5.250158030990552</v>
+        <v>13.85150764157446</v>
       </c>
       <c r="M15">
-        <v>14.61153408263324</v>
+        <v>13.03397335292291</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.292486975022678</v>
       </c>
       <c r="O15">
-        <v>11.30774397701178</v>
+        <v>14.36286039321435</v>
       </c>
       <c r="P15">
-        <v>14.15725458448389</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.25536863146006</v>
+      </c>
+      <c r="R15">
+        <v>13.66905522799208</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.5921559703001</v>
+        <v>14.82890722586624</v>
       </c>
       <c r="C16">
-        <v>10.73348687901729</v>
+        <v>11.59093428680906</v>
       </c>
       <c r="D16">
-        <v>2.985786980709554</v>
+        <v>3.492533145744129</v>
       </c>
       <c r="E16">
-        <v>5.142514153511739</v>
+        <v>5.38274836310775</v>
       </c>
       <c r="F16">
-        <v>30.66063366150718</v>
+        <v>28.65232590467924</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.913336325943439</v>
+        <v>6.870858466184947</v>
       </c>
       <c r="I16">
-        <v>3.37024773342038</v>
+        <v>3.190405285602591</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>19.84020135675974</v>
+        <v>18.11570327198184</v>
       </c>
       <c r="L16">
-        <v>5.215325075166437</v>
+        <v>13.92832931618487</v>
       </c>
       <c r="M16">
-        <v>14.20961804349692</v>
+        <v>12.93812430122316</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.262623485854221</v>
       </c>
       <c r="O16">
-        <v>11.11092983987032</v>
+        <v>13.9203231849229</v>
       </c>
       <c r="P16">
-        <v>14.27350619203675</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.06182463436317</v>
+      </c>
+      <c r="R16">
+        <v>13.79164999339181</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.37411419028395</v>
+        <v>14.58715094347413</v>
       </c>
       <c r="C17">
-        <v>10.74148022991884</v>
+        <v>11.60753272752912</v>
       </c>
       <c r="D17">
-        <v>3.089654053145134</v>
+        <v>3.605354108208457</v>
       </c>
       <c r="E17">
-        <v>5.290113479242354</v>
+        <v>5.556775916087445</v>
       </c>
       <c r="F17">
-        <v>31.15510553423183</v>
+        <v>29.13105013753439</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.243039800268595</v>
+        <v>6.192552482828197</v>
       </c>
       <c r="I17">
-        <v>3.439738733805914</v>
+        <v>3.252378273325516</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>20.11878385717185</v>
+        <v>18.37272578849899</v>
       </c>
       <c r="L17">
-        <v>5.222056169959111</v>
+        <v>14.16235968657308</v>
       </c>
       <c r="M17">
-        <v>14.08136432425653</v>
+        <v>13.07863560029262</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.26837280340059</v>
       </c>
       <c r="O17">
-        <v>11.31715621272482</v>
+        <v>13.78926235367926</v>
       </c>
       <c r="P17">
-        <v>14.43085294133316</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.2683064371976</v>
+      </c>
+      <c r="R17">
+        <v>13.92290936875126</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.3855644049913</v>
+        <v>14.54514239518212</v>
       </c>
       <c r="C18">
-        <v>11.01059057586038</v>
+        <v>11.92036942570936</v>
       </c>
       <c r="D18">
-        <v>3.340723966330744</v>
+        <v>3.885625953429745</v>
       </c>
       <c r="E18">
-        <v>5.787906180170001</v>
+        <v>6.089167800496146</v>
       </c>
       <c r="F18">
-        <v>32.41998363767802</v>
+        <v>30.283932059669</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.100718235550016</v>
+        <v>5.038738170296281</v>
       </c>
       <c r="I18">
-        <v>3.448685138654912</v>
+        <v>3.258686178401894</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>20.74828434839258</v>
+        <v>18.8995940712523</v>
       </c>
       <c r="L18">
-        <v>5.342670128427099</v>
+        <v>14.58503816658334</v>
       </c>
       <c r="M18">
-        <v>14.18241564645286</v>
+        <v>13.44993615298185</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.381731396865084</v>
       </c>
       <c r="O18">
-        <v>11.89745307975412</v>
+        <v>13.87586769534501</v>
       </c>
       <c r="P18">
-        <v>14.66201348803856</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.84623024297974</v>
+      </c>
+      <c r="R18">
+        <v>14.09368648565313</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.54619197324931</v>
+        <v>14.63704848281643</v>
       </c>
       <c r="C19">
-        <v>11.49485523554224</v>
+        <v>12.47014676518083</v>
       </c>
       <c r="D19">
-        <v>3.71206256067098</v>
+        <v>4.298293785660175</v>
       </c>
       <c r="E19">
-        <v>6.69879111321261</v>
+        <v>7.030090822759859</v>
       </c>
       <c r="F19">
-        <v>34.13817016721149</v>
+        <v>31.82768649874641</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.8000205674513</v>
+        <v>3.721565354327834</v>
       </c>
       <c r="I19">
-        <v>3.42371715827611</v>
+        <v>3.239175029008484</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>21.56571914660081</v>
+        <v>19.56290106955985</v>
       </c>
       <c r="L19">
-        <v>5.647473355362097</v>
+        <v>15.09815550338626</v>
       </c>
       <c r="M19">
-        <v>14.44545300270776</v>
+        <v>13.94448738454287</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.674130701752846</v>
       </c>
       <c r="O19">
-        <v>12.72865234731753</v>
+        <v>14.11714038211907</v>
       </c>
       <c r="P19">
-        <v>14.94184396256437</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.67320017913498</v>
+      </c>
+      <c r="R19">
+        <v>14.29047333933127</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.16911709595911</v>
+        <v>15.14978477281428</v>
       </c>
       <c r="C20">
-        <v>12.47680617763028</v>
+        <v>13.57668023630111</v>
       </c>
       <c r="D20">
-        <v>4.351370481760368</v>
+        <v>5.013292608723097</v>
       </c>
       <c r="E20">
-        <v>8.474772240983054</v>
+        <v>8.83864877214144</v>
       </c>
       <c r="F20">
-        <v>37.14587537641329</v>
+        <v>34.48863012566866</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.520345574530434</v>
+        <v>2.428446627468458</v>
       </c>
       <c r="I20">
-        <v>3.271388955063649</v>
+        <v>3.108244872461674</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>22.96583083456937</v>
+        <v>20.66122960749913</v>
       </c>
       <c r="L20">
-        <v>6.384540648838513</v>
+        <v>15.88188796232055</v>
       </c>
       <c r="M20">
-        <v>15.15872443089628</v>
+        <v>14.84416969140527</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.387277860096003</v>
       </c>
       <c r="O20">
-        <v>14.20165684939068</v>
+        <v>14.78851741874529</v>
       </c>
       <c r="P20">
-        <v>15.36602123398961</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.13646134957667</v>
+      </c>
+      <c r="R20">
+        <v>14.56212189518606</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.13997144810506</v>
+        <v>16.07627244258591</v>
       </c>
       <c r="C21">
-        <v>13.26766547714833</v>
+        <v>14.44547628672686</v>
       </c>
       <c r="D21">
-        <v>4.619388783980138</v>
+        <v>5.330376363140801</v>
       </c>
       <c r="E21">
-        <v>9.012490827094579</v>
+        <v>9.385270852762993</v>
       </c>
       <c r="F21">
-        <v>38.57058048026148</v>
+        <v>35.6612141312145</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.166653328465718</v>
+        <v>2.095511794338003</v>
       </c>
       <c r="I21">
-        <v>3.007649826331807</v>
+        <v>2.878679151312585</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015645</v>
       </c>
       <c r="K21">
-        <v>23.52362328544604</v>
+        <v>21.010430635365</v>
       </c>
       <c r="L21">
-        <v>6.625790769557106</v>
+        <v>15.95819700379365</v>
       </c>
       <c r="M21">
-        <v>16.01933899938697</v>
+        <v>15.34343251871691</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.613042911423081</v>
       </c>
       <c r="O21">
-        <v>14.95764418982704</v>
+        <v>15.68428535197159</v>
       </c>
       <c r="P21">
-        <v>15.31817811183792</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.88320874417872</v>
+      </c>
+      <c r="R21">
+        <v>14.44075056634838</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.77869480192377</v>
+        <v>16.66198890114105</v>
       </c>
       <c r="C22">
-        <v>13.74838861506779</v>
+        <v>14.94074647600862</v>
       </c>
       <c r="D22">
-        <v>4.752250118883436</v>
+        <v>5.491893968405486</v>
       </c>
       <c r="E22">
-        <v>9.267492815742226</v>
+        <v>9.644802938521062</v>
       </c>
       <c r="F22">
-        <v>39.41001049897483</v>
+        <v>36.34965593848619</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.954085432607417</v>
+        <v>1.896342718448945</v>
       </c>
       <c r="I22">
-        <v>2.830244875427953</v>
+        <v>2.72072970044498</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>23.86374739534017</v>
+        <v>21.22358671336214</v>
       </c>
       <c r="L22">
-        <v>6.74389723893849</v>
+        <v>15.99171138322355</v>
       </c>
       <c r="M22">
-        <v>16.60519948881794</v>
+        <v>15.6678352689179</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.722020152017944</v>
       </c>
       <c r="O22">
-        <v>15.37966600421839</v>
+        <v>16.25787626432186</v>
       </c>
       <c r="P22">
-        <v>15.27743249739244</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.29938268707161</v>
+      </c>
+      <c r="R22">
+        <v>14.35530543464067</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.45384948673616</v>
+        <v>16.3698708150586</v>
       </c>
       <c r="C23">
-        <v>13.47453417690167</v>
+        <v>14.65980866940111</v>
       </c>
       <c r="D23">
-        <v>4.671249029813879</v>
+        <v>5.396284396550112</v>
       </c>
       <c r="E23">
-        <v>9.12823285781886</v>
+        <v>9.50332865009474</v>
       </c>
       <c r="F23">
-        <v>39.00855506672949</v>
+        <v>36.02509491152164</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.065866376983499</v>
+        <v>2.001110439632406</v>
       </c>
       <c r="I23">
-        <v>2.912511542550638</v>
+        <v>2.790446952153366</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>23.7192516380047</v>
+        <v>21.14286664431406</v>
       </c>
       <c r="L23">
-        <v>6.682442089964064</v>
+        <v>15.99838782937337</v>
       </c>
       <c r="M23">
-        <v>16.29548619708411</v>
+        <v>15.51977027369357</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.665300838045115</v>
       </c>
       <c r="O23">
-        <v>15.15717517624448</v>
+        <v>15.96015228647103</v>
       </c>
       <c r="P23">
-        <v>15.31153562020549</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.0799150650469</v>
+      </c>
+      <c r="R23">
+        <v>14.41047171993255</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.20927307324076</v>
+        <v>15.18106786805176</v>
       </c>
       <c r="C24">
-        <v>12.48837003079697</v>
+        <v>13.59619583462293</v>
       </c>
       <c r="D24">
-        <v>4.372501487468789</v>
+        <v>5.039125619648593</v>
       </c>
       <c r="E24">
-        <v>8.591193685921253</v>
+        <v>8.95727341434951</v>
       </c>
       <c r="F24">
-        <v>37.39335749688965</v>
+        <v>34.71434613664047</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.499147570025385</v>
+        <v>2.407538974737698</v>
       </c>
       <c r="I24">
-        <v>3.251411456804877</v>
+        <v>3.085299509673038</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>23.11106096424485</v>
+        <v>20.78530827315401</v>
       </c>
       <c r="L24">
-        <v>6.442283396572936</v>
+        <v>15.97874501559906</v>
       </c>
       <c r="M24">
-        <v>15.18894041928213</v>
+        <v>14.93538713179951</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.443691828806627</v>
       </c>
       <c r="O24">
-        <v>14.2860800991651</v>
+        <v>14.8160624824772</v>
       </c>
       <c r="P24">
-        <v>15.42239667688441</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.22031174005728</v>
+      </c>
+      <c r="R24">
+        <v>14.60488615167308</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.76665191888693</v>
+        <v>13.78352440018374</v>
       </c>
       <c r="C25">
-        <v>11.39622674330755</v>
+        <v>12.39055914488834</v>
       </c>
       <c r="D25">
-        <v>4.031910659461186</v>
+        <v>4.631253362071194</v>
       </c>
       <c r="E25">
-        <v>7.978304853934349</v>
+        <v>8.334300433040042</v>
       </c>
       <c r="F25">
-        <v>35.61110998476328</v>
+        <v>33.27560712416203</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.984390940399992</v>
+        <v>2.863499170211523</v>
       </c>
       <c r="I25">
-        <v>3.633279804631362</v>
+        <v>3.419353065626173</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>22.45432362446766</v>
+        <v>20.40365126173286</v>
       </c>
       <c r="L25">
-        <v>6.172115804175806</v>
+        <v>15.94435890684734</v>
       </c>
       <c r="M25">
-        <v>13.94174805786455</v>
+        <v>14.35148713187177</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.194472297212623</v>
       </c>
       <c r="O25">
-        <v>13.29321502877367</v>
+        <v>13.60666069054835</v>
       </c>
       <c r="P25">
-        <v>15.54620243503633</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>13.23964869075493</v>
+      </c>
+      <c r="R25">
+        <v>14.81726902644944</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
